--- a/需求分析/需求接口 v1.0.0.xlsx
+++ b/需求分析/需求接口 v1.0.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22635" windowHeight="11730" activeTab="5"/>
+    <workbookView windowWidth="22635" windowHeight="11730" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="接口说明" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161">
   <si>
     <t>红色代表异常接口</t>
   </si>
@@ -30,6 +30,9 @@
     <t>绿色代表接口正常</t>
   </si>
   <si>
+    <t>蓝色代表已开通但未验证</t>
+  </si>
+  <si>
     <t>用户登录</t>
   </si>
   <si>
@@ -72,18 +75,27 @@
     <t>用户登录密码</t>
   </si>
   <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>下次请求的令牌</t>
+  </si>
+  <si>
+    <t>myTeamId</t>
+  </si>
+  <si>
+    <t>企业码</t>
+  </si>
+  <si>
+    <t>result(json对象)</t>
+  </si>
+  <si>
     <t>userName</t>
   </si>
   <si>
     <t>用户名</t>
   </si>
   <si>
-    <t>myTeamId</t>
-  </si>
-  <si>
-    <t>企业码</t>
-  </si>
-  <si>
     <t>userImg</t>
   </si>
   <si>
@@ -99,12 +111,6 @@
     <t>用户地区</t>
   </si>
   <si>
-    <t>token</t>
-  </si>
-  <si>
-    <t>下次请求的令牌</t>
-  </si>
-  <si>
     <t>userId</t>
   </si>
   <si>
@@ -153,21 +159,24 @@
     <t>insertCardFront.action</t>
   </si>
   <si>
+    <t>上传结果，1为成功，2为失败</t>
+  </si>
+  <si>
+    <t>令牌</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>图片路径</t>
+  </si>
+  <si>
     <t>cardFront</t>
   </si>
   <si>
     <t>正面照片</t>
   </si>
   <si>
-    <t>上传结果，1为成功，0为失败</t>
-  </si>
-  <si>
-    <t>图片Id</t>
-  </si>
-  <si>
-    <t>图片路径</t>
-  </si>
-  <si>
     <t>上传身份证背面照</t>
   </si>
   <si>
@@ -177,9 +186,6 @@
     <t>cardBack</t>
   </si>
   <si>
-    <t>背面照片</t>
-  </si>
-  <si>
     <t>上传手持身份证照</t>
   </si>
   <si>
@@ -189,9 +195,6 @@
     <t>cardHand</t>
   </si>
   <si>
-    <t>手持照片</t>
-  </si>
-  <si>
     <t>提交体验申请</t>
   </si>
   <si>
@@ -261,9 +264,6 @@
     <t>搜索到的用户Id</t>
   </si>
   <si>
-    <t>令牌</t>
-  </si>
-  <si>
     <t>friendImg</t>
   </si>
   <si>
@@ -432,24 +432,24 @@
     <t>SOCKET</t>
   </si>
   <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>发送聊天消息</t>
+  </si>
+  <si>
+    <t>消息类型</t>
+  </si>
+  <si>
+    <t>0x00000001</t>
+  </si>
+  <si>
+    <t>聊天消息</t>
+  </si>
+  <si>
     <t>senderId</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>发送聊天消息</t>
-  </si>
-  <si>
-    <t>消息类型</t>
-  </si>
-  <si>
-    <t>0x00000001</t>
-  </si>
-  <si>
-    <t>聊天消息</t>
-  </si>
-  <si>
     <t>0x00000002</t>
   </si>
   <si>
@@ -474,23 +474,34 @@
     <t>发送的数据</t>
   </si>
   <si>
-    <t>{
-"sendUserId":"89d9317fb3834353bcf2a507bee2eb84",
-"receiveUserId":"89d9317fb3834353bcf2a507bee2eb82",
-"userImg":"",
-"userName":"",
-"userSex":""
-"dataType":1,
-"friendRemarkName":"",
-"myTeamId":"10001",
-"isRead":0,
-"sendCount":1,
-"sendData":"sdf",
-"token":"1",
-}</t>
-  </si>
-  <si>
     <t>接收聊天消息</t>
+  </si>
+  <si>
+    <t>sendUserId</t>
+  </si>
+  <si>
+    <t>发送方的用户Id</t>
+  </si>
+  <si>
+    <t>receiveUserId</t>
+  </si>
+  <si>
+    <t>接收方的用户Id</t>
+  </si>
+  <si>
+    <t>发送者的用户名</t>
+  </si>
+  <si>
+    <t>发送者的头像</t>
+  </si>
+  <si>
+    <t>userSex</t>
+  </si>
+  <si>
+    <t>发送者的性别</t>
+  </si>
+  <si>
+    <t>发送者的备注名称</t>
   </si>
 </sst>
 </file>
@@ -498,10 +509,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -534,44 +545,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -588,29 +561,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -624,9 +575,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -656,8 +622,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -672,7 +683,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,25 +707,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,18 +743,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -756,7 +755,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,7 +803,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,13 +821,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,25 +845,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,13 +863,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,21 +874,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -906,30 +902,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -940,6 +912,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -963,6 +950,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -971,10 +982,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -983,141 +994,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="46" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="39" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1138,6 +1149,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="40">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="46" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="35" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1150,19 +1164,22 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="40" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="46" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="46" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="35" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="43" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="35" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="28" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="28" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="39" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="43" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1562,79 +1579,100 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A4:G5"/>
     <mergeCell ref="A7:G8"/>
+    <mergeCell ref="A10:G11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1644,10 +1682,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O170"/>
+  <dimension ref="A1:O167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M144" sqref="M144:O144"/>
+      <selection activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1656,62 +1694,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1720,29 +1758,29 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -1754,20 +1792,20 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -1779,23 +1817,21 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3" t="s">
+      <c r="K6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="3"/>
@@ -1809,11 +1845,11 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -1830,11 +1866,11 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -1850,15 +1886,15 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
+      <c r="K9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="4"/>
@@ -1872,11 +1908,11 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -1892,160 +1928,159 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3" t="s">
+      <c r="L11" s="14"/>
+      <c r="M11" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
+      <c r="A30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -2053,112 +2088,112 @@
       <c r="O32" s="2"/>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="9" t="s">
+      <c r="A33" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9" t="s">
+      <c r="F33" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9" t="s">
+      <c r="G33" s="10"/>
+      <c r="H33" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9" t="s">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
+      <c r="A50" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
@@ -2166,56 +2201,56 @@
       <c r="O52" s="2"/>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53" s="8" t="s">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8" t="s">
+      <c r="F53" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="9" t="s">
+      <c r="G53" s="9"/>
+      <c r="H53" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N53" s="9"/>
-      <c r="O53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8" t="s">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="4"/>
@@ -2224,81 +2259,81 @@
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
-      <c r="K55" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8"/>
+      <c r="K55" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
     </row>
     <row r="72" spans="1:15">
-      <c r="A72" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
+      <c r="A72" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="15"/>
+      <c r="N72" s="15"/>
+      <c r="O72" s="15"/>
     </row>
     <row r="73" spans="1:15">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="15"/>
+      <c r="O73" s="15"/>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
@@ -2306,58 +2341,58 @@
       <c r="O74" s="2"/>
     </row>
     <row r="75" spans="1:15">
-      <c r="A75" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L75" s="9"/>
-      <c r="M75" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N75" s="9"/>
-      <c r="O75" s="9"/>
+      <c r="A75" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
     </row>
     <row r="76" spans="1:15">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8" t="s">
+      <c r="A76" s="9"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="8" t="s">
+      <c r="G76" s="9"/>
+      <c r="H76" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L76" s="8"/>
-      <c r="M76" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N76" s="8"/>
-      <c r="O76" s="8"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N76" s="9"/>
+      <c r="O76" s="9"/>
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="4"/>
@@ -2370,15 +2405,15 @@
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
-      <c r="K77" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L77" s="8"/>
-      <c r="M77" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N77" s="8"/>
-      <c r="O77" s="8"/>
+      <c r="K77" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N77" s="9"/>
+      <c r="O77" s="9"/>
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="4"/>
@@ -2391,15 +2426,15 @@
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
-      <c r="K78" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L78" s="8"/>
-      <c r="M78" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N78" s="8"/>
-      <c r="O78" s="8"/>
+      <c r="K78" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N78" s="9"/>
+      <c r="O78" s="9"/>
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="4"/>
@@ -2412,15 +2447,15 @@
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
-      <c r="K79" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L79" s="8"/>
-      <c r="M79" s="8" t="s">
+      <c r="K79" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="N79" s="8"/>
-      <c r="O79" s="8"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N79" s="9"/>
+      <c r="O79" s="9"/>
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="4"/>
@@ -2433,15 +2468,15 @@
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
-      <c r="K80" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="L80" s="14"/>
-      <c r="M80" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="N80" s="14"/>
-      <c r="O80" s="14"/>
+      <c r="K80" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L80" s="16"/>
+      <c r="M80" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N80" s="16"/>
+      <c r="O80" s="16"/>
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="4"/>
@@ -2454,15 +2489,15 @@
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
-      <c r="K81" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L81" s="8"/>
-      <c r="M81" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N81" s="8"/>
-      <c r="O81" s="8"/>
+      <c r="K81" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N81" s="9"/>
+      <c r="O81" s="9"/>
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="4"/>
@@ -2475,15 +2510,15 @@
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
-      <c r="K82" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L82" s="8"/>
-      <c r="M82" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="N82" s="8"/>
-      <c r="O82" s="8"/>
+      <c r="K82" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N82" s="9"/>
+      <c r="O82" s="9"/>
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="4"/>
@@ -2497,18 +2532,18 @@
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L83" s="3"/>
       <c r="M83" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -2544,25 +2579,25 @@
     </row>
     <row r="108" spans="1:15">
       <c r="A108" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G108" s="2"/>
       <c r="H108" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
       <c r="K108" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
@@ -2570,52 +2605,58 @@
       <c r="O108" s="2"/>
     </row>
     <row r="109" spans="1:15">
-      <c r="A109" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B109" s="8"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F109" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G109" s="8"/>
-      <c r="H109" s="8" t="s">
+      <c r="A109" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I109" s="8"/>
-      <c r="J109" s="8"/>
-      <c r="K109" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L109" s="9"/>
-      <c r="M109" s="9" t="s">
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3"/>
+      <c r="K109" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L109" s="3"/>
+      <c r="M109" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="N109" s="9"/>
-      <c r="O109" s="9"/>
+      <c r="N109" s="10"/>
+      <c r="O109" s="10"/>
     </row>
     <row r="110" spans="1:15">
-      <c r="A110" s="8"/>
-      <c r="B110" s="8"/>
-      <c r="C110" s="8"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="8"/>
-      <c r="F110" s="8"/>
-      <c r="G110" s="8"/>
-      <c r="H110" s="8"/>
-      <c r="I110" s="8"/>
-      <c r="J110" s="8"/>
-      <c r="K110" s="8"/>
-      <c r="L110" s="8"/>
-      <c r="M110" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="N110" s="8"/>
-      <c r="O110" s="8"/>
+      <c r="A110" s="3"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L110" s="3"/>
+      <c r="M110" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N110" s="3"/>
+      <c r="O110" s="3"/>
     </row>
     <row r="111" spans="1:15">
       <c r="A111" s="4"/>
@@ -2623,125 +2664,120 @@
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
-      <c r="H111" s="4"/>
-      <c r="I111" s="4"/>
-      <c r="J111" s="4"/>
-      <c r="K111" s="4"/>
-      <c r="L111" s="4"/>
-      <c r="M111" s="3" t="s">
+      <c r="F111" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="N111" s="3"/>
-      <c r="O111" s="3"/>
+      <c r="L111" s="10"/>
+      <c r="M111" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N111" s="10"/>
+      <c r="O111" s="10"/>
     </row>
     <row r="112" spans="1:15">
-      <c r="A112" s="10"/>
-      <c r="B112" s="10"/>
-      <c r="C112" s="10"/>
-      <c r="D112" s="10"/>
-      <c r="E112" s="10"/>
-      <c r="F112" s="10"/>
-      <c r="G112" s="10"/>
-      <c r="H112" s="10"/>
-      <c r="I112" s="10"/>
-      <c r="J112" s="10"/>
-      <c r="K112" s="10"/>
-      <c r="L112" s="10"/>
-      <c r="M112" s="10"/>
-      <c r="N112" s="10"/>
-      <c r="O112" s="10"/>
-    </row>
-    <row r="113" spans="1:15">
-      <c r="A113" s="10"/>
-      <c r="B113" s="10"/>
-      <c r="C113" s="10"/>
-      <c r="D113" s="10"/>
-      <c r="E113" s="10"/>
-      <c r="F113" s="10"/>
-      <c r="G113" s="10"/>
-      <c r="H113" s="10"/>
-      <c r="I113" s="10"/>
-      <c r="J113" s="10"/>
-      <c r="K113" s="10"/>
-      <c r="L113" s="10"/>
-      <c r="M113" s="10"/>
-      <c r="N113" s="10"/>
-      <c r="O113" s="10"/>
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3"/>
+      <c r="K112" s="4"/>
+      <c r="L112" s="4"/>
+      <c r="M112" s="4"/>
+      <c r="N112" s="4"/>
+      <c r="O112" s="4"/>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" s="11"/>
+      <c r="B113" s="11"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="11"/>
+      <c r="I113" s="11"/>
+      <c r="J113" s="11"/>
     </row>
     <row r="114" spans="1:15">
-      <c r="A114" s="10"/>
-      <c r="B114" s="10"/>
-      <c r="C114" s="10"/>
-      <c r="D114" s="10"/>
-      <c r="E114" s="10"/>
-      <c r="F114" s="10"/>
-      <c r="G114" s="10"/>
-      <c r="H114" s="10"/>
-      <c r="I114" s="10"/>
-      <c r="J114" s="10"/>
-      <c r="K114" s="10"/>
-      <c r="L114" s="10"/>
-      <c r="M114" s="10"/>
-      <c r="N114" s="10"/>
-      <c r="O114" s="10"/>
+      <c r="A114" s="11"/>
+      <c r="B114" s="11"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11"/>
+      <c r="H114" s="11"/>
+      <c r="I114" s="11"/>
+      <c r="J114" s="11"/>
+      <c r="K114" s="11"/>
+      <c r="L114" s="11"/>
+      <c r="M114" s="11"/>
+      <c r="N114" s="11"/>
+      <c r="O114" s="11"/>
     </row>
     <row r="115" spans="1:15">
-      <c r="A115" s="10"/>
-      <c r="B115" s="10"/>
-      <c r="C115" s="10"/>
-      <c r="D115" s="10"/>
-      <c r="E115" s="10"/>
-      <c r="F115" s="10"/>
-      <c r="G115" s="10"/>
-      <c r="H115" s="10"/>
-      <c r="I115" s="10"/>
-      <c r="J115" s="10"/>
-      <c r="K115" s="10"/>
-      <c r="L115" s="10"/>
-      <c r="M115" s="10"/>
-      <c r="N115" s="10"/>
-      <c r="O115" s="10"/>
+      <c r="A115" s="11"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="11"/>
+      <c r="I115" s="11"/>
+      <c r="J115" s="11"/>
+      <c r="K115" s="11"/>
+      <c r="L115" s="11"/>
+      <c r="M115" s="11"/>
+      <c r="N115" s="11"/>
+      <c r="O115" s="11"/>
     </row>
     <row r="116" spans="1:15">
-      <c r="A116" s="10"/>
-      <c r="B116" s="10"/>
-      <c r="C116" s="10"/>
-      <c r="D116" s="10"/>
-      <c r="E116" s="10"/>
-      <c r="F116" s="10"/>
-      <c r="G116" s="10"/>
-      <c r="H116" s="10"/>
-      <c r="I116" s="10"/>
-      <c r="J116" s="10"/>
-      <c r="K116" s="10"/>
-      <c r="L116" s="10"/>
-      <c r="M116" s="10"/>
-      <c r="N116" s="10"/>
-      <c r="O116" s="10"/>
-    </row>
-    <row r="117" spans="1:15">
-      <c r="A117" s="10"/>
-      <c r="B117" s="10"/>
-      <c r="C117" s="10"/>
-      <c r="D117" s="10"/>
-      <c r="E117" s="10"/>
-      <c r="F117" s="10"/>
-      <c r="G117" s="10"/>
-      <c r="H117" s="10"/>
-      <c r="I117" s="10"/>
-      <c r="J117" s="10"/>
-      <c r="K117" s="10"/>
-      <c r="L117" s="10"/>
-      <c r="M117" s="10"/>
-      <c r="N117" s="10"/>
-      <c r="O117" s="10"/>
+      <c r="A116" s="11"/>
+      <c r="B116" s="11"/>
+      <c r="C116" s="11"/>
+      <c r="I116" s="11"/>
+      <c r="J116" s="11"/>
+      <c r="K116" s="11"/>
+      <c r="L116" s="11"/>
+      <c r="M116" s="11"/>
+      <c r="N116" s="11"/>
+      <c r="O116" s="11"/>
+    </row>
+    <row r="135" spans="1:15">
+      <c r="A135" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="M135" s="1"/>
+      <c r="N135" s="1"/>
+      <c r="O135" s="1"/>
     </row>
     <row r="136" spans="1:15">
-      <c r="A136" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -2758,96 +2794,110 @@
       <c r="O136" s="1"/>
     </row>
     <row r="137" spans="1:15">
-      <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
-      <c r="G137" s="1"/>
-      <c r="H137" s="1"/>
-      <c r="I137" s="1"/>
-      <c r="J137" s="1"/>
-      <c r="K137" s="1"/>
-      <c r="L137" s="1"/>
-      <c r="M137" s="1"/>
-      <c r="N137" s="1"/>
-      <c r="O137" s="1"/>
+      <c r="A137" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I137" s="2"/>
+      <c r="J137" s="2"/>
+      <c r="K137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L137" s="2"/>
+      <c r="M137" s="2"/>
+      <c r="N137" s="2"/>
+      <c r="O137" s="2"/>
     </row>
     <row r="138" spans="1:15">
-      <c r="A138" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G138" s="2"/>
-      <c r="H138" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I138" s="2"/>
-      <c r="J138" s="2"/>
-      <c r="K138" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L138" s="2"/>
-      <c r="M138" s="2"/>
-      <c r="N138" s="2"/>
-      <c r="O138" s="2"/>
+      <c r="A138" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B138" s="9"/>
+      <c r="C138" s="9"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G138" s="3"/>
+      <c r="H138" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I138" s="3"/>
+      <c r="J138" s="3"/>
+      <c r="K138" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L138" s="3"/>
+      <c r="M138" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="N138" s="10"/>
+      <c r="O138" s="10"/>
     </row>
     <row r="139" spans="1:15">
-      <c r="A139" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B139" s="8"/>
-      <c r="C139" s="8"/>
-      <c r="D139" s="8"/>
-      <c r="E139" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F139" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G139" s="8"/>
-      <c r="H139" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I139" s="8"/>
-      <c r="J139" s="8"/>
-      <c r="K139" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L139" s="9"/>
-      <c r="M139" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="N139" s="9"/>
-      <c r="O139" s="9"/>
+      <c r="A139" s="9"/>
+      <c r="B139" s="9"/>
+      <c r="C139" s="9"/>
+      <c r="D139" s="9"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G139" s="3"/>
+      <c r="H139" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I139" s="3"/>
+      <c r="J139" s="3"/>
+      <c r="K139" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L139" s="3"/>
+      <c r="M139" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N139" s="3"/>
+      <c r="O139" s="3"/>
     </row>
     <row r="140" spans="1:15">
-      <c r="A140" s="8"/>
-      <c r="B140" s="8"/>
-      <c r="C140" s="8"/>
-      <c r="D140" s="8"/>
-      <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="8"/>
-      <c r="H140" s="8"/>
-      <c r="I140" s="8"/>
-      <c r="J140" s="8"/>
-      <c r="K140" s="8"/>
-      <c r="L140" s="8"/>
-      <c r="M140" s="8" t="s">
+      <c r="A140" s="4"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="4"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="4"/>
+      <c r="F140" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G140" s="3"/>
+      <c r="H140" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N140" s="8"/>
-      <c r="O140" s="8"/>
+      <c r="I140" s="3"/>
+      <c r="J140" s="3"/>
+      <c r="K140" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="L140" s="10"/>
+      <c r="M140" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N140" s="10"/>
+      <c r="O140" s="10"/>
     </row>
     <row r="141" spans="1:15">
       <c r="A141" s="4"/>
@@ -2855,355 +2905,322 @@
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
-      <c r="F141" s="4"/>
-      <c r="G141" s="4"/>
-      <c r="H141" s="4"/>
-      <c r="I141" s="4"/>
-      <c r="J141" s="4"/>
+      <c r="F141" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G141" s="3"/>
+      <c r="H141" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I141" s="3"/>
+      <c r="J141" s="3"/>
       <c r="K141" s="4"/>
       <c r="L141" s="4"/>
-      <c r="M141" s="3" t="s">
+      <c r="M141" s="4"/>
+      <c r="N141" s="4"/>
+      <c r="O141" s="4"/>
+    </row>
+    <row r="142" spans="1:15">
+      <c r="A142" s="11"/>
+      <c r="B142" s="11"/>
+      <c r="C142" s="11"/>
+      <c r="D142" s="11"/>
+      <c r="E142" s="11"/>
+      <c r="F142" s="11"/>
+      <c r="G142" s="11"/>
+      <c r="H142" s="11"/>
+      <c r="I142" s="11"/>
+      <c r="J142" s="11"/>
+      <c r="K142" s="11"/>
+      <c r="L142" s="11"/>
+      <c r="M142" s="11"/>
+      <c r="N142" s="11"/>
+      <c r="O142" s="11"/>
+    </row>
+    <row r="143" spans="1:15">
+      <c r="A143" s="11"/>
+      <c r="B143" s="11"/>
+      <c r="C143" s="11"/>
+      <c r="D143" s="11"/>
+      <c r="E143" s="11"/>
+      <c r="F143" s="11"/>
+      <c r="G143" s="11"/>
+      <c r="H143" s="11"/>
+      <c r="I143" s="11"/>
+      <c r="J143" s="11"/>
+      <c r="K143" s="11"/>
+      <c r="L143" s="11"/>
+      <c r="M143" s="11"/>
+      <c r="N143" s="11"/>
+      <c r="O143" s="11"/>
+    </row>
+    <row r="144" spans="1:15">
+      <c r="A144" s="11"/>
+      <c r="B144" s="11"/>
+      <c r="C144" s="11"/>
+      <c r="D144" s="11"/>
+      <c r="E144" s="11"/>
+      <c r="F144" s="11"/>
+      <c r="G144" s="11"/>
+      <c r="H144" s="11"/>
+      <c r="I144" s="11"/>
+      <c r="J144" s="11"/>
+      <c r="K144" s="11"/>
+      <c r="L144" s="11"/>
+      <c r="M144" s="11"/>
+      <c r="N144" s="11"/>
+      <c r="O144" s="11"/>
+    </row>
+    <row r="145" spans="1:15">
+      <c r="A145" s="11"/>
+      <c r="B145" s="11"/>
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="11"/>
+      <c r="F145" s="11"/>
+      <c r="G145" s="11"/>
+      <c r="H145" s="11"/>
+      <c r="I145" s="11"/>
+      <c r="J145" s="11"/>
+      <c r="K145" s="11"/>
+      <c r="L145" s="11"/>
+      <c r="M145" s="11"/>
+      <c r="N145" s="11"/>
+      <c r="O145" s="11"/>
+    </row>
+    <row r="157" spans="1:15">
+      <c r="A157" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
+      <c r="M157" s="1"/>
+      <c r="N157" s="1"/>
+      <c r="O157" s="1"/>
+    </row>
+    <row r="158" spans="1:15">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="I158" s="1"/>
+      <c r="J158" s="1"/>
+      <c r="K158" s="1"/>
+      <c r="L158" s="1"/>
+      <c r="M158" s="1"/>
+      <c r="N158" s="1"/>
+      <c r="O158" s="1"/>
+    </row>
+    <row r="159" spans="1:15">
+      <c r="A159" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G159" s="2"/>
+      <c r="H159" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I159" s="2"/>
+      <c r="J159" s="2"/>
+      <c r="K159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L159" s="2"/>
+      <c r="M159" s="2"/>
+      <c r="N159" s="2"/>
+      <c r="O159" s="2"/>
+    </row>
+    <row r="160" spans="1:15">
+      <c r="A160" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B160" s="3"/>
+      <c r="C160" s="3"/>
+      <c r="D160" s="3"/>
+      <c r="E160" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G160" s="3"/>
+      <c r="H160" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I160" s="3"/>
+      <c r="J160" s="3"/>
+      <c r="K160" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L160" s="3"/>
+      <c r="M160" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="N160" s="10"/>
+      <c r="O160" s="10"/>
+    </row>
+    <row r="161" spans="1:15">
+      <c r="A161" s="3"/>
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="3"/>
+      <c r="E161" s="3"/>
+      <c r="F161" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G161" s="3"/>
+      <c r="H161" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I161" s="3"/>
+      <c r="J161" s="3"/>
+      <c r="K161" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L161" s="3"/>
+      <c r="M161" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N161" s="3"/>
+      <c r="O161" s="3"/>
+    </row>
+    <row r="162" spans="1:15">
+      <c r="A162" s="4"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="4"/>
+      <c r="D162" s="4"/>
+      <c r="E162" s="4"/>
+      <c r="F162" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G162" s="3"/>
+      <c r="H162" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I162" s="3"/>
+      <c r="J162" s="3"/>
+      <c r="K162" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="N141" s="3"/>
-      <c r="O141" s="3"/>
-    </row>
-    <row r="142" spans="1:15">
-      <c r="A142" s="10"/>
-      <c r="B142" s="10"/>
-      <c r="C142" s="10"/>
-      <c r="D142" s="10"/>
-      <c r="E142" s="10"/>
-      <c r="F142" s="10"/>
-      <c r="G142" s="10"/>
-      <c r="H142" s="10"/>
-      <c r="I142" s="10"/>
-      <c r="J142" s="10"/>
-      <c r="K142" s="10"/>
-      <c r="L142" s="10"/>
-      <c r="M142" s="10"/>
-      <c r="N142" s="10"/>
-      <c r="O142" s="10"/>
-    </row>
-    <row r="143" spans="1:15">
-      <c r="A143" s="10"/>
-      <c r="B143" s="10"/>
-      <c r="C143" s="10"/>
-      <c r="D143" s="10"/>
-      <c r="E143" s="10"/>
-      <c r="F143" s="10"/>
-      <c r="G143" s="10"/>
-      <c r="H143" s="10"/>
-      <c r="I143" s="10"/>
-      <c r="J143" s="10"/>
-      <c r="K143" s="10"/>
-      <c r="L143" s="10"/>
-      <c r="M143" s="10"/>
-      <c r="N143" s="10"/>
-      <c r="O143" s="10"/>
-    </row>
-    <row r="144" spans="1:15">
-      <c r="A144" s="10"/>
-      <c r="B144" s="10"/>
-      <c r="C144" s="10"/>
-      <c r="D144" s="10"/>
-      <c r="E144" s="10"/>
-      <c r="F144" s="10"/>
-      <c r="G144" s="10"/>
-      <c r="H144" s="10"/>
-      <c r="I144" s="10"/>
-      <c r="J144" s="10"/>
-      <c r="K144" s="10"/>
-      <c r="L144" s="10"/>
-      <c r="M144" s="10"/>
-      <c r="N144" s="10"/>
-      <c r="O144" s="10"/>
-    </row>
-    <row r="145" spans="1:15">
-      <c r="A145" s="10"/>
-      <c r="B145" s="10"/>
-      <c r="C145" s="10"/>
-      <c r="D145" s="10"/>
-      <c r="E145" s="10"/>
-      <c r="F145" s="10"/>
-      <c r="G145" s="10"/>
-      <c r="H145" s="10"/>
-      <c r="I145" s="10"/>
-      <c r="J145" s="10"/>
-      <c r="K145" s="10"/>
-      <c r="L145" s="10"/>
-      <c r="M145" s="10"/>
-      <c r="N145" s="10"/>
-      <c r="O145" s="10"/>
-    </row>
-    <row r="146" spans="1:15">
-      <c r="A146" s="10"/>
-      <c r="B146" s="10"/>
-      <c r="C146" s="10"/>
-      <c r="D146" s="10"/>
-      <c r="E146" s="10"/>
-      <c r="F146" s="10"/>
-      <c r="G146" s="10"/>
-      <c r="H146" s="10"/>
-      <c r="I146" s="10"/>
-      <c r="J146" s="10"/>
-      <c r="K146" s="10"/>
-      <c r="L146" s="10"/>
-      <c r="M146" s="10"/>
-      <c r="N146" s="10"/>
-      <c r="O146" s="10"/>
-    </row>
-    <row r="147" spans="1:15">
-      <c r="A147" s="10"/>
-      <c r="B147" s="10"/>
-      <c r="C147" s="10"/>
-      <c r="D147" s="10"/>
-      <c r="E147" s="10"/>
-      <c r="F147" s="10"/>
-      <c r="G147" s="10"/>
-      <c r="H147" s="10"/>
-      <c r="I147" s="10"/>
-      <c r="J147" s="10"/>
-      <c r="K147" s="10"/>
-      <c r="L147" s="10"/>
-      <c r="M147" s="10"/>
-      <c r="N147" s="10"/>
-      <c r="O147" s="10"/>
-    </row>
-    <row r="159" spans="1:15">
-      <c r="A159" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
-      <c r="G159" s="1"/>
-      <c r="H159" s="1"/>
-      <c r="I159" s="1"/>
-      <c r="J159" s="1"/>
-      <c r="K159" s="1"/>
-      <c r="L159" s="1"/>
-      <c r="M159" s="1"/>
-      <c r="N159" s="1"/>
-      <c r="O159" s="1"/>
-    </row>
-    <row r="160" spans="1:15">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
-      <c r="G160" s="1"/>
-      <c r="H160" s="1"/>
-      <c r="I160" s="1"/>
-      <c r="J160" s="1"/>
-      <c r="K160" s="1"/>
-      <c r="L160" s="1"/>
-      <c r="M160" s="1"/>
-      <c r="N160" s="1"/>
-      <c r="O160" s="1"/>
-    </row>
-    <row r="161" spans="1:15">
-      <c r="A161" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B161" s="2"/>
-      <c r="C161" s="2"/>
-      <c r="D161" s="2"/>
-      <c r="E161" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G161" s="2"/>
-      <c r="H161" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I161" s="2"/>
-      <c r="J161" s="2"/>
-      <c r="K161" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L161" s="2"/>
-      <c r="M161" s="2"/>
-      <c r="N161" s="2"/>
-      <c r="O161" s="2"/>
-    </row>
-    <row r="162" spans="1:15">
-      <c r="A162" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B162" s="8"/>
-      <c r="C162" s="8"/>
-      <c r="D162" s="8"/>
-      <c r="E162" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F162" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G162" s="8"/>
-      <c r="H162" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I162" s="8"/>
-      <c r="J162" s="8"/>
-      <c r="K162" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L162" s="9"/>
-      <c r="M162" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="N162" s="9"/>
-      <c r="O162" s="9"/>
+      <c r="L162" s="10"/>
+      <c r="M162" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N162" s="10"/>
+      <c r="O162" s="10"/>
     </row>
     <row r="163" spans="1:15">
-      <c r="A163" s="8"/>
-      <c r="B163" s="8"/>
-      <c r="C163" s="8"/>
-      <c r="D163" s="8"/>
-      <c r="E163" s="8"/>
-      <c r="F163" s="8"/>
-      <c r="G163" s="8"/>
-      <c r="H163" s="8"/>
-      <c r="I163" s="8"/>
-      <c r="J163" s="8"/>
-      <c r="K163" s="8"/>
-      <c r="L163" s="8"/>
-      <c r="M163" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="N163" s="8"/>
-      <c r="O163" s="8"/>
+      <c r="A163" s="4"/>
+      <c r="B163" s="4"/>
+      <c r="C163" s="4"/>
+      <c r="D163" s="4"/>
+      <c r="E163" s="4"/>
+      <c r="F163" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G163" s="3"/>
+      <c r="H163" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I163" s="3"/>
+      <c r="J163" s="3"/>
+      <c r="K163" s="4"/>
+      <c r="L163" s="4"/>
+      <c r="M163" s="4"/>
+      <c r="N163" s="4"/>
+      <c r="O163" s="4"/>
     </row>
     <row r="164" spans="1:15">
-      <c r="A164" s="4"/>
-      <c r="B164" s="4"/>
-      <c r="C164" s="4"/>
-      <c r="D164" s="4"/>
-      <c r="E164" s="4"/>
-      <c r="F164" s="4"/>
-      <c r="G164" s="4"/>
-      <c r="H164" s="4"/>
-      <c r="I164" s="4"/>
-      <c r="J164" s="4"/>
-      <c r="K164" s="4"/>
-      <c r="L164" s="4"/>
-      <c r="M164" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="N164" s="3"/>
-      <c r="O164" s="3"/>
+      <c r="A164" s="11"/>
+      <c r="B164" s="11"/>
+      <c r="C164" s="11"/>
+      <c r="D164" s="11"/>
+      <c r="E164" s="11"/>
+      <c r="F164" s="11"/>
+      <c r="G164" s="11"/>
+      <c r="H164" s="11"/>
+      <c r="I164" s="11"/>
+      <c r="J164" s="11"/>
+      <c r="K164" s="11"/>
+      <c r="L164" s="11"/>
+      <c r="M164" s="11"/>
+      <c r="N164" s="11"/>
+      <c r="O164" s="11"/>
     </row>
     <row r="165" spans="1:15">
-      <c r="A165" s="10"/>
-      <c r="B165" s="10"/>
-      <c r="C165" s="10"/>
-      <c r="D165" s="10"/>
-      <c r="E165" s="10"/>
-      <c r="F165" s="10"/>
-      <c r="G165" s="10"/>
-      <c r="H165" s="10"/>
-      <c r="I165" s="10"/>
-      <c r="J165" s="10"/>
-      <c r="K165" s="10"/>
-      <c r="L165" s="10"/>
-      <c r="M165" s="10"/>
-      <c r="N165" s="10"/>
-      <c r="O165" s="10"/>
+      <c r="A165" s="11"/>
+      <c r="B165" s="11"/>
+      <c r="C165" s="11"/>
+      <c r="D165" s="11"/>
+      <c r="E165" s="11"/>
+      <c r="F165" s="11"/>
+      <c r="G165" s="11"/>
+      <c r="H165" s="11"/>
+      <c r="I165" s="11"/>
+      <c r="J165" s="11"/>
+      <c r="K165" s="11"/>
+      <c r="L165" s="11"/>
+      <c r="M165" s="11"/>
+      <c r="N165" s="11"/>
+      <c r="O165" s="11"/>
     </row>
     <row r="166" spans="1:15">
-      <c r="A166" s="10"/>
-      <c r="B166" s="10"/>
-      <c r="C166" s="10"/>
-      <c r="D166" s="10"/>
-      <c r="E166" s="10"/>
-      <c r="F166" s="10"/>
-      <c r="G166" s="10"/>
-      <c r="H166" s="10"/>
-      <c r="I166" s="10"/>
-      <c r="J166" s="10"/>
-      <c r="K166" s="10"/>
-      <c r="L166" s="10"/>
-      <c r="M166" s="10"/>
-      <c r="N166" s="10"/>
-      <c r="O166" s="10"/>
+      <c r="A166" s="11"/>
+      <c r="B166" s="11"/>
+      <c r="C166" s="11"/>
+      <c r="D166" s="11"/>
+      <c r="E166" s="11"/>
+      <c r="F166" s="11"/>
+      <c r="G166" s="11"/>
+      <c r="H166" s="11"/>
+      <c r="I166" s="11"/>
+      <c r="J166" s="11"/>
+      <c r="K166" s="11"/>
+      <c r="L166" s="11"/>
+      <c r="M166" s="11"/>
+      <c r="N166" s="11"/>
+      <c r="O166" s="11"/>
     </row>
     <row r="167" spans="1:15">
-      <c r="A167" s="10"/>
-      <c r="B167" s="10"/>
-      <c r="C167" s="10"/>
-      <c r="D167" s="10"/>
-      <c r="E167" s="10"/>
-      <c r="F167" s="10"/>
-      <c r="G167" s="10"/>
-      <c r="H167" s="10"/>
-      <c r="I167" s="10"/>
-      <c r="J167" s="10"/>
-      <c r="K167" s="10"/>
-      <c r="L167" s="10"/>
-      <c r="M167" s="10"/>
-      <c r="N167" s="10"/>
-      <c r="O167" s="10"/>
-    </row>
-    <row r="168" spans="1:15">
-      <c r="A168" s="10"/>
-      <c r="B168" s="10"/>
-      <c r="C168" s="10"/>
-      <c r="D168" s="10"/>
-      <c r="E168" s="10"/>
-      <c r="F168" s="10"/>
-      <c r="G168" s="10"/>
-      <c r="H168" s="10"/>
-      <c r="I168" s="10"/>
-      <c r="J168" s="10"/>
-      <c r="K168" s="10"/>
-      <c r="L168" s="10"/>
-      <c r="M168" s="10"/>
-      <c r="N168" s="10"/>
-      <c r="O168" s="10"/>
-    </row>
-    <row r="169" spans="1:15">
-      <c r="A169" s="10"/>
-      <c r="B169" s="10"/>
-      <c r="C169" s="10"/>
-      <c r="D169" s="10"/>
-      <c r="E169" s="10"/>
-      <c r="F169" s="10"/>
-      <c r="G169" s="10"/>
-      <c r="H169" s="10"/>
-      <c r="I169" s="10"/>
-      <c r="J169" s="10"/>
-      <c r="K169" s="10"/>
-      <c r="L169" s="10"/>
-      <c r="M169" s="10"/>
-      <c r="N169" s="10"/>
-      <c r="O169" s="10"/>
-    </row>
-    <row r="170" spans="1:15">
-      <c r="A170" s="10"/>
-      <c r="B170" s="10"/>
-      <c r="C170" s="10"/>
-      <c r="D170" s="10"/>
-      <c r="E170" s="10"/>
-      <c r="F170" s="10"/>
-      <c r="G170" s="10"/>
-      <c r="H170" s="10"/>
-      <c r="I170" s="10"/>
-      <c r="J170" s="10"/>
-      <c r="K170" s="10"/>
-      <c r="L170" s="10"/>
-      <c r="M170" s="10"/>
-      <c r="N170" s="10"/>
-      <c r="O170" s="10"/>
+      <c r="A167" s="11"/>
+      <c r="B167" s="11"/>
+      <c r="C167" s="11"/>
+      <c r="D167" s="11"/>
+      <c r="E167" s="11"/>
+      <c r="F167" s="11"/>
+      <c r="G167" s="11"/>
+      <c r="H167" s="11"/>
+      <c r="I167" s="11"/>
+      <c r="J167" s="11"/>
+      <c r="K167" s="11"/>
+      <c r="L167" s="11"/>
+      <c r="M167" s="11"/>
+      <c r="N167" s="11"/>
+      <c r="O167" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="200">
+  <mergeCells count="197">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -3219,8 +3236,7 @@
     <mergeCell ref="M5:O5"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="K6:O6"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="K7:L7"/>
@@ -3238,18 +3254,16 @@
     <mergeCell ref="M10:O10"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:O11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:O12"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="M20:O20"/>
     <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:L21"/>
     <mergeCell ref="M21:O21"/>
-    <mergeCell ref="K22:L22"/>
     <mergeCell ref="M22:O22"/>
-    <mergeCell ref="K23:L23"/>
     <mergeCell ref="M23:O23"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="F32:G32"/>
@@ -3327,23 +3341,27 @@
     <mergeCell ref="H111:J111"/>
     <mergeCell ref="K111:L111"/>
     <mergeCell ref="M111:O111"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="H112:J112"/>
     <mergeCell ref="K112:L112"/>
     <mergeCell ref="M112:O112"/>
-    <mergeCell ref="K113:L113"/>
-    <mergeCell ref="M113:O113"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="H113:J113"/>
     <mergeCell ref="K114:L114"/>
     <mergeCell ref="M114:O114"/>
     <mergeCell ref="K115:L115"/>
     <mergeCell ref="M115:O115"/>
     <mergeCell ref="K116:L116"/>
     <mergeCell ref="M116:O116"/>
-    <mergeCell ref="K117:L117"/>
-    <mergeCell ref="M117:O117"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="F137:G137"/>
+    <mergeCell ref="H137:J137"/>
+    <mergeCell ref="K137:O137"/>
     <mergeCell ref="A138:D138"/>
     <mergeCell ref="F138:G138"/>
     <mergeCell ref="H138:J138"/>
-    <mergeCell ref="K138:O138"/>
-    <mergeCell ref="A139:D139"/>
+    <mergeCell ref="K138:L138"/>
+    <mergeCell ref="M138:O138"/>
     <mergeCell ref="F139:G139"/>
     <mergeCell ref="H139:J139"/>
     <mergeCell ref="K139:L139"/>
@@ -3364,15 +3382,19 @@
     <mergeCell ref="M144:O144"/>
     <mergeCell ref="K145:L145"/>
     <mergeCell ref="M145:O145"/>
-    <mergeCell ref="K146:L146"/>
-    <mergeCell ref="M146:O146"/>
-    <mergeCell ref="K147:L147"/>
-    <mergeCell ref="M147:O147"/>
-    <mergeCell ref="A161:D161"/>
+    <mergeCell ref="A159:D159"/>
+    <mergeCell ref="F159:G159"/>
+    <mergeCell ref="H159:J159"/>
+    <mergeCell ref="K159:O159"/>
+    <mergeCell ref="A160:D160"/>
+    <mergeCell ref="F160:G160"/>
+    <mergeCell ref="H160:J160"/>
+    <mergeCell ref="K160:L160"/>
+    <mergeCell ref="M160:O160"/>
     <mergeCell ref="F161:G161"/>
     <mergeCell ref="H161:J161"/>
-    <mergeCell ref="K161:O161"/>
-    <mergeCell ref="A162:D162"/>
+    <mergeCell ref="K161:L161"/>
+    <mergeCell ref="M161:O161"/>
     <mergeCell ref="F162:G162"/>
     <mergeCell ref="H162:J162"/>
     <mergeCell ref="K162:L162"/>
@@ -3381,8 +3403,6 @@
     <mergeCell ref="H163:J163"/>
     <mergeCell ref="K163:L163"/>
     <mergeCell ref="M163:O163"/>
-    <mergeCell ref="F164:G164"/>
-    <mergeCell ref="H164:J164"/>
     <mergeCell ref="K164:L164"/>
     <mergeCell ref="M164:O164"/>
     <mergeCell ref="K165:L165"/>
@@ -3391,19 +3411,13 @@
     <mergeCell ref="M166:O166"/>
     <mergeCell ref="K167:L167"/>
     <mergeCell ref="M167:O167"/>
-    <mergeCell ref="K168:L168"/>
-    <mergeCell ref="M168:O168"/>
-    <mergeCell ref="K169:L169"/>
-    <mergeCell ref="M169:O169"/>
-    <mergeCell ref="K170:L170"/>
-    <mergeCell ref="M170:O170"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A106:O107"/>
-    <mergeCell ref="A136:O137"/>
     <mergeCell ref="A30:O31"/>
     <mergeCell ref="A50:O51"/>
     <mergeCell ref="A72:O73"/>
-    <mergeCell ref="A159:O160"/>
+    <mergeCell ref="A135:O136"/>
+    <mergeCell ref="A157:O158"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3416,8 +3430,8 @@
   <sheetPr/>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3426,62 +3440,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
+      <c r="A1" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -3489,52 +3503,52 @@
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="4"/>
@@ -3543,19 +3557,19 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4"/>
@@ -3564,104 +3578,104 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="37">
@@ -3714,7 +3728,7 @@
   <sheetPr/>
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
@@ -3724,62 +3738,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
+      <c r="A1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -3787,112 +3801,112 @@
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="9" t="s">
+      <c r="A4" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9" t="s">
+      <c r="G4" s="10"/>
+      <c r="H4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
+      <c r="A25" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -3900,56 +3914,56 @@
       <c r="O27" s="2"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="8" t="s">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8" t="s">
+      <c r="F28" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="9" t="s">
+      <c r="G28" s="9"/>
+      <c r="H28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8" t="s">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="4"/>
@@ -3958,77 +3972,77 @@
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
+      <c r="A48" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
@@ -4036,71 +4050,71 @@
       <c r="O50" s="2"/>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9" t="s">
+      <c r="A51" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8" t="s">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="50">
@@ -4166,8 +4180,8 @@
   <sheetPr/>
   <dimension ref="A1:R203"/>
   <sheetViews>
-    <sheetView topLeftCell="D150" workbookViewId="0">
-      <selection activeCell="P170" sqref="P170:R176"/>
+    <sheetView topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="F199" sqref="F199:J201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4176,62 +4190,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
+      <c r="A1" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -4239,33 +4253,33 @@
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9" t="s">
+      <c r="A4" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="4"/>
@@ -4274,20 +4288,20 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -4299,11 +4313,11 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -4323,21 +4337,21 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8" t="s">
+      <c r="F7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
       <c r="K7" s="3" t="s">
         <v>84</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -4379,68 +4393,68 @@
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -4448,33 +4462,33 @@
       <c r="O29" s="2"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9" t="s">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="4"/>
@@ -4483,11 +4497,11 @@
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -4504,11 +4518,11 @@
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
@@ -4525,7 +4539,7 @@
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3" t="s">
@@ -4561,79 +4575,79 @@
       <c r="O34" s="4"/>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
@@ -4641,33 +4655,33 @@
       <c r="O52" s="2"/>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9" t="s">
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="N53" s="9"/>
-      <c r="O53" s="9"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="4"/>
@@ -4676,16 +4690,16 @@
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3" t="s">
@@ -4701,11 +4715,11 @@
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
@@ -4783,66 +4797,66 @@
       <c r="O58" s="3"/>
     </row>
     <row r="59" spans="11:12">
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
     </row>
     <row r="73" spans="1:15">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8"/>
+      <c r="O73" s="8"/>
     </row>
     <row r="74" spans="1:15">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="8"/>
+      <c r="N74" s="8"/>
+      <c r="O74" s="8"/>
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G75" s="2"/>
       <c r="H75" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
@@ -4850,33 +4864,33 @@
       <c r="O75" s="2"/>
     </row>
     <row r="76" spans="1:15">
-      <c r="A76" s="8" t="s">
+      <c r="A76" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F76" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L76" s="9"/>
-      <c r="M76" s="9" t="s">
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="N76" s="9"/>
-      <c r="O76" s="9"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="10"/>
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="4"/>
@@ -4885,11 +4899,11 @@
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
@@ -4908,11 +4922,11 @@
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
@@ -4931,7 +4945,7 @@
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="3" t="s">
@@ -5043,62 +5057,62 @@
       <c r="O84" s="4"/>
     </row>
     <row r="103" spans="1:15">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
-      <c r="K103" s="1"/>
-      <c r="L103" s="1"/>
-      <c r="M103" s="1"/>
-      <c r="N103" s="1"/>
-      <c r="O103" s="1"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c r="H103" s="8"/>
+      <c r="I103" s="8"/>
+      <c r="J103" s="8"/>
+      <c r="K103" s="8"/>
+      <c r="L103" s="8"/>
+      <c r="M103" s="8"/>
+      <c r="N103" s="8"/>
+      <c r="O103" s="8"/>
     </row>
     <row r="104" spans="1:15">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
-      <c r="K104" s="1"/>
-      <c r="L104" s="1"/>
-      <c r="M104" s="1"/>
-      <c r="N104" s="1"/>
-      <c r="O104" s="1"/>
+      <c r="A104" s="8"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
+      <c r="J104" s="8"/>
+      <c r="K104" s="8"/>
+      <c r="L104" s="8"/>
+      <c r="M104" s="8"/>
+      <c r="N104" s="8"/>
+      <c r="O104" s="8"/>
     </row>
     <row r="105" spans="1:15">
       <c r="A105" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G105" s="2"/>
       <c r="H105" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
       <c r="K105" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
@@ -5113,21 +5127,21 @@
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G106" s="3"/>
       <c r="H106" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
-      <c r="K106" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L106" s="9"/>
+      <c r="K106" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L106" s="10"/>
       <c r="M106" s="3" t="s">
         <v>109</v>
       </c>
@@ -5141,11 +5155,11 @@
       <c r="D107" s="3"/>
       <c r="E107" s="4"/>
       <c r="F107" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G107" s="3"/>
       <c r="H107" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
@@ -5162,11 +5176,11 @@
       <c r="D108" s="3"/>
       <c r="E108" s="4"/>
       <c r="F108" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G108" s="3"/>
       <c r="H108" s="3" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
@@ -5183,7 +5197,7 @@
       <c r="D109" s="3"/>
       <c r="E109" s="4"/>
       <c r="F109" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G109" s="3"/>
       <c r="H109" s="3" t="s">
@@ -5240,62 +5254,62 @@
       <c r="O111" s="4"/>
     </row>
     <row r="134" spans="1:15">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
-      <c r="G134" s="1"/>
-      <c r="H134" s="1"/>
-      <c r="I134" s="1"/>
-      <c r="J134" s="1"/>
-      <c r="K134" s="1"/>
-      <c r="L134" s="1"/>
-      <c r="M134" s="1"/>
-      <c r="N134" s="1"/>
-      <c r="O134" s="1"/>
+      <c r="B134" s="8"/>
+      <c r="C134" s="8"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c r="H134" s="8"/>
+      <c r="I134" s="8"/>
+      <c r="J134" s="8"/>
+      <c r="K134" s="8"/>
+      <c r="L134" s="8"/>
+      <c r="M134" s="8"/>
+      <c r="N134" s="8"/>
+      <c r="O134" s="8"/>
     </row>
     <row r="135" spans="1:15">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
-      <c r="G135" s="1"/>
-      <c r="H135" s="1"/>
-      <c r="I135" s="1"/>
-      <c r="J135" s="1"/>
-      <c r="K135" s="1"/>
-      <c r="L135" s="1"/>
-      <c r="M135" s="1"/>
-      <c r="N135" s="1"/>
-      <c r="O135" s="1"/>
+      <c r="A135" s="8"/>
+      <c r="B135" s="8"/>
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c r="H135" s="8"/>
+      <c r="I135" s="8"/>
+      <c r="J135" s="8"/>
+      <c r="K135" s="8"/>
+      <c r="L135" s="8"/>
+      <c r="M135" s="8"/>
+      <c r="N135" s="8"/>
+      <c r="O135" s="8"/>
     </row>
     <row r="136" spans="1:15">
       <c r="A136" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G136" s="2"/>
       <c r="H136" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I136" s="2"/>
       <c r="J136" s="2"/>
       <c r="K136" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L136" s="2"/>
       <c r="M136" s="2"/>
@@ -5310,19 +5324,19 @@
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G137" s="3"/>
       <c r="H137" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
       <c r="K137" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L137" s="3"/>
       <c r="M137" s="3" t="s">
@@ -5338,11 +5352,11 @@
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
       <c r="F138" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G138" s="3"/>
       <c r="H138" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
@@ -5359,11 +5373,11 @@
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
       <c r="F139" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G139" s="3"/>
       <c r="H139" s="3" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
@@ -5380,7 +5394,7 @@
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
       <c r="F140" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G140" s="3"/>
       <c r="H140" s="3" t="s">
@@ -5395,23 +5409,23 @@
       <c r="O140" s="4"/>
     </row>
     <row r="165" spans="1:18">
-      <c r="A165" s="1" t="s">
+      <c r="A165" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B165" s="1"/>
-      <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
-      <c r="E165" s="1"/>
-      <c r="F165" s="1"/>
-      <c r="G165" s="1"/>
-      <c r="H165" s="1"/>
-      <c r="I165" s="1"/>
-      <c r="J165" s="1"/>
-      <c r="K165" s="1"/>
-      <c r="L165" s="1"/>
-      <c r="M165" s="1"/>
-      <c r="N165" s="1"/>
-      <c r="O165" s="1"/>
+      <c r="B165" s="8"/>
+      <c r="C165" s="8"/>
+      <c r="D165" s="8"/>
+      <c r="E165" s="8"/>
+      <c r="F165" s="8"/>
+      <c r="G165" s="8"/>
+      <c r="H165" s="8"/>
+      <c r="I165" s="8"/>
+      <c r="J165" s="8"/>
+      <c r="K165" s="8"/>
+      <c r="L165" s="8"/>
+      <c r="M165" s="8"/>
+      <c r="N165" s="8"/>
+      <c r="O165" s="8"/>
       <c r="P165" s="6" t="s">
         <v>116</v>
       </c>
@@ -5419,46 +5433,46 @@
       <c r="R165" s="6"/>
     </row>
     <row r="166" spans="1:18">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-      <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
-      <c r="G166" s="1"/>
-      <c r="H166" s="1"/>
-      <c r="I166" s="1"/>
-      <c r="J166" s="1"/>
-      <c r="K166" s="1"/>
-      <c r="L166" s="1"/>
-      <c r="M166" s="1"/>
-      <c r="N166" s="1"/>
-      <c r="O166" s="1"/>
+      <c r="A166" s="8"/>
+      <c r="B166" s="8"/>
+      <c r="C166" s="8"/>
+      <c r="D166" s="8"/>
+      <c r="E166" s="8"/>
+      <c r="F166" s="8"/>
+      <c r="G166" s="8"/>
+      <c r="H166" s="8"/>
+      <c r="I166" s="8"/>
+      <c r="J166" s="8"/>
+      <c r="K166" s="8"/>
+      <c r="L166" s="8"/>
+      <c r="M166" s="8"/>
+      <c r="N166" s="8"/>
+      <c r="O166" s="8"/>
       <c r="P166" s="6"/>
       <c r="Q166" s="6"/>
       <c r="R166" s="6"/>
     </row>
     <row r="167" spans="1:18">
       <c r="A167" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G167" s="2"/>
       <c r="H167" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I167" s="2"/>
       <c r="J167" s="2"/>
       <c r="K167" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L167" s="2"/>
       <c r="M167" s="2"/>
@@ -5480,19 +5494,19 @@
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G168" s="3"/>
       <c r="H168" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
       <c r="K168" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L168" s="3"/>
       <c r="M168" s="3" t="s">
@@ -5515,16 +5529,16 @@
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
       <c r="F169" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G169" s="3"/>
       <c r="H169" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
       <c r="K169" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L169" s="3"/>
       <c r="M169" s="3" t="s">
@@ -5547,11 +5561,11 @@
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
       <c r="F170" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G170" s="3"/>
       <c r="H170" s="3" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
@@ -5565,8 +5579,8 @@
       <c r="N170" s="3"/>
       <c r="O170" s="3"/>
       <c r="P170" s="6"/>
-      <c r="Q170" s="11"/>
-      <c r="R170" s="11"/>
+      <c r="Q170" s="12"/>
+      <c r="R170" s="12"/>
     </row>
     <row r="171" spans="1:18">
       <c r="A171" s="4"/>
@@ -5589,8 +5603,8 @@
       <c r="N171" s="3"/>
       <c r="O171" s="3"/>
       <c r="P171" s="6"/>
-      <c r="Q171" s="11"/>
-      <c r="R171" s="11"/>
+      <c r="Q171" s="12"/>
+      <c r="R171" s="12"/>
     </row>
     <row r="172" spans="1:18">
       <c r="A172" s="4"/>
@@ -5613,8 +5627,8 @@
       <c r="N172" s="3"/>
       <c r="O172" s="3"/>
       <c r="P172" s="6"/>
-      <c r="Q172" s="11"/>
-      <c r="R172" s="11"/>
+      <c r="Q172" s="12"/>
+      <c r="R172" s="12"/>
     </row>
     <row r="173" spans="1:18">
       <c r="A173" s="4"/>
@@ -5713,67 +5727,67 @@
       <c r="R176" s="7"/>
     </row>
     <row r="177" spans="16:18">
-      <c r="P177" s="10"/>
-      <c r="Q177" s="10"/>
-      <c r="R177" s="10"/>
+      <c r="P177" s="11"/>
+      <c r="Q177" s="11"/>
+      <c r="R177" s="11"/>
     </row>
     <row r="196" spans="1:15">
-      <c r="A196" s="1" t="s">
+      <c r="A196" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B196" s="1"/>
-      <c r="C196" s="1"/>
-      <c r="D196" s="1"/>
-      <c r="E196" s="1"/>
-      <c r="F196" s="1"/>
-      <c r="G196" s="1"/>
-      <c r="H196" s="1"/>
-      <c r="I196" s="1"/>
-      <c r="J196" s="1"/>
-      <c r="K196" s="1"/>
-      <c r="L196" s="1"/>
-      <c r="M196" s="1"/>
-      <c r="N196" s="1"/>
-      <c r="O196" s="1"/>
+      <c r="B196" s="8"/>
+      <c r="C196" s="8"/>
+      <c r="D196" s="8"/>
+      <c r="E196" s="8"/>
+      <c r="F196" s="8"/>
+      <c r="G196" s="8"/>
+      <c r="H196" s="8"/>
+      <c r="I196" s="8"/>
+      <c r="J196" s="8"/>
+      <c r="K196" s="8"/>
+      <c r="L196" s="8"/>
+      <c r="M196" s="8"/>
+      <c r="N196" s="8"/>
+      <c r="O196" s="8"/>
     </row>
     <row r="197" spans="1:15">
-      <c r="A197" s="1"/>
-      <c r="B197" s="1"/>
-      <c r="C197" s="1"/>
-      <c r="D197" s="1"/>
-      <c r="E197" s="1"/>
-      <c r="F197" s="1"/>
-      <c r="G197" s="1"/>
-      <c r="H197" s="1"/>
-      <c r="I197" s="1"/>
-      <c r="J197" s="1"/>
-      <c r="K197" s="1"/>
-      <c r="L197" s="1"/>
-      <c r="M197" s="1"/>
-      <c r="N197" s="1"/>
-      <c r="O197" s="1"/>
+      <c r="A197" s="8"/>
+      <c r="B197" s="8"/>
+      <c r="C197" s="8"/>
+      <c r="D197" s="8"/>
+      <c r="E197" s="8"/>
+      <c r="F197" s="8"/>
+      <c r="G197" s="8"/>
+      <c r="H197" s="8"/>
+      <c r="I197" s="8"/>
+      <c r="J197" s="8"/>
+      <c r="K197" s="8"/>
+      <c r="L197" s="8"/>
+      <c r="M197" s="8"/>
+      <c r="N197" s="8"/>
+      <c r="O197" s="8"/>
     </row>
     <row r="198" spans="1:15">
       <c r="A198" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G198" s="2"/>
       <c r="H198" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I198" s="2"/>
       <c r="J198" s="2"/>
       <c r="K198" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L198" s="2"/>
       <c r="M198" s="2"/>
@@ -5788,19 +5802,19 @@
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G199" s="3"/>
       <c r="H199" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I199" s="3"/>
       <c r="J199" s="3"/>
       <c r="K199" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L199" s="3"/>
       <c r="M199" s="3" t="s">
@@ -5816,11 +5830,11 @@
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
       <c r="F200" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G200" s="3"/>
       <c r="H200" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I200" s="3"/>
       <c r="J200" s="3"/>
@@ -5837,11 +5851,11 @@
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
       <c r="F201" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G201" s="3"/>
       <c r="H201" s="3" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="I201" s="3"/>
       <c r="J201" s="3"/>
@@ -5879,7 +5893,7 @@
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
       <c r="F203" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G203" s="3"/>
       <c r="H203" s="3" t="s">
@@ -6110,10 +6124,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:S67"/>
+  <dimension ref="A1:S71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="P49" sqref="P49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6156,25 +6170,25 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -6192,11 +6206,11 @@
         <v>136</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>137</v>
+        <v>65</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -6213,11 +6227,11 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -6234,11 +6248,11 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -6284,7 +6298,7 @@
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -6301,7 +6315,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
@@ -6330,36 +6344,36 @@
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q31" s="6"/>
       <c r="R31" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="S31" s="6"/>
     </row>
@@ -6374,11 +6388,11 @@
         <v>136</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
@@ -6453,11 +6467,11 @@
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
@@ -6496,14 +6510,12 @@
       <c r="R36" s="7"/>
       <c r="S36" s="7"/>
     </row>
-    <row r="49" ht="409.5" spans="1:1">
-      <c r="A49" s="5" t="s">
-        <v>151</v>
-      </c>
+    <row r="49" spans="1:1">
+      <c r="A49" s="5"/>
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -6539,25 +6551,25 @@
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
@@ -6580,10 +6592,12 @@
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
+      <c r="M63" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
     </row>
@@ -6599,10 +6613,12 @@
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
+      <c r="M64" s="3" t="s">
+        <v>155</v>
+      </c>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
     </row>
@@ -6621,7 +6637,9 @@
         <v>147</v>
       </c>
       <c r="L65" s="3"/>
-      <c r="M65" s="3"/>
+      <c r="M65" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
     </row>
@@ -6636,9 +6654,13 @@
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
+      <c r="K66" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
+      <c r="M66" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
     </row>
@@ -6653,14 +6675,102 @@
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
-      <c r="N67" s="4"/>
-      <c r="O67" s="4"/>
+      <c r="K67" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="87">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -6734,6 +6844,16 @@
     <mergeCell ref="M66:O66"/>
     <mergeCell ref="F67:G67"/>
     <mergeCell ref="H67:J67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M67:O67"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="M68:O68"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="M69:O69"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="M70:O70"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="M71:O71"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A29:O30"/>
     <mergeCell ref="A60:O61"/>

--- a/需求分析/需求接口 v1.0.0.xlsx
+++ b/需求分析/需求接口 v1.0.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22635" windowHeight="11730" activeTab="2"/>
+    <workbookView windowWidth="22635" windowHeight="11730" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="接口说明" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164">
   <si>
     <t>红色代表异常接口</t>
   </si>
@@ -255,7 +255,10 @@
     <t>user_findUserByPhone.action</t>
   </si>
   <si>
-    <t>1代表请求成功并返回以下数据，2表示没有此用户</t>
+    <t>1代表请求成功并返回 result 数据，2表示没有此用户</t>
+  </si>
+  <si>
+    <t>手机号码</t>
   </si>
   <si>
     <t>friendId</t>
@@ -270,9 +273,6 @@
     <t>头像</t>
   </si>
   <si>
-    <t>手机号码</t>
-  </si>
-  <si>
     <t>friendName</t>
   </si>
   <si>
@@ -291,9 +291,6 @@
     <t>user_addFriendRequest.action</t>
   </si>
   <si>
-    <t>1代表发送成功</t>
-  </si>
-  <si>
     <t>要添加的用户Id</t>
   </si>
   <si>
@@ -309,7 +306,10 @@
     <t>user_findFriendList.action</t>
   </si>
   <si>
-    <t>1代表请求成功并返回以下数据</t>
+    <t>1代表请求成功并返回 result 数据</t>
+  </si>
+  <si>
+    <t>result(json数组)</t>
   </si>
   <si>
     <t>好友的Id</t>
@@ -336,19 +336,31 @@
     <t>获取好友详细信息</t>
   </si>
   <si>
+    <t>好友的手机号</t>
+  </si>
+  <si>
+    <t>好友所在的区域</t>
+  </si>
+  <si>
     <t>friendAddress</t>
   </si>
   <si>
+    <t>好友的详细地址</t>
+  </si>
+  <si>
     <t>friendRemarkText</t>
   </si>
   <si>
+    <t>好友的备注文字</t>
+  </si>
+  <si>
     <t>修改好友信息</t>
   </si>
   <si>
     <t>user_updateFriendRemark.action</t>
   </si>
   <si>
-    <t>返回1代表修改成功</t>
+    <t>1代表请求成功并</t>
   </si>
   <si>
     <t>备注名称</t>
@@ -363,7 +375,7 @@
     <t>user_deleteFriend.action</t>
   </si>
   <si>
-    <t>返回1代表删除成功</t>
+    <t>1代表请求成功</t>
   </si>
   <si>
     <t>获取好友请求</t>
@@ -379,9 +391,6 @@
   </si>
   <si>
     <t>user_findFriendRequest.action</t>
-  </si>
-  <si>
-    <t>返回1代表请求成功</t>
   </si>
   <si>
     <t>negative</t>
@@ -707,13 +716,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1105,7 +1114,7 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1114,7 +1123,7 @@
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1124,7 +1133,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1149,7 +1158,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="40">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="46" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="43" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="35" applyFill="1" applyAlignment="1">
@@ -1164,13 +1173,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="40" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="46" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="46" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="35" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="43" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="35" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1179,7 +1185,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="28" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="43" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="46" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1588,44 +1594,44 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
@@ -1648,24 +1654,24 @@
       <c r="G8" s="1"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1684,8 +1690,8 @@
   <sheetPr/>
   <dimension ref="A1:O167"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G84" sqref="G84"/>
+    <sheetView topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2025,40 +2031,40 @@
       <c r="O23" s="11"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="2" t="s">
@@ -2138,40 +2144,40 @@
       <c r="O34" s="10"/>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="13"/>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="13"/>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="2" t="s">
@@ -2278,40 +2284,40 @@
       <c r="O55" s="9"/>
     </row>
     <row r="72" spans="1:15">
-      <c r="A72" s="15" t="s">
+      <c r="A72" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B72" s="15"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="15"/>
-      <c r="L72" s="15"/>
-      <c r="M72" s="15"/>
-      <c r="N72" s="15"/>
-      <c r="O72" s="15"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="8"/>
+      <c r="O72" s="8"/>
     </row>
     <row r="73" spans="1:15">
-      <c r="A73" s="15"/>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="15"/>
-      <c r="K73" s="15"/>
-      <c r="L73" s="15"/>
-      <c r="M73" s="15"/>
-      <c r="N73" s="15"/>
-      <c r="O73" s="15"/>
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8"/>
+      <c r="O73" s="8"/>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="2" t="s">
@@ -2468,15 +2474,15 @@
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
-      <c r="K80" s="16" t="s">
+      <c r="K80" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L80" s="16"/>
-      <c r="M80" s="16" t="s">
+      <c r="L80" s="15"/>
+      <c r="M80" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="N80" s="16"/>
-      <c r="O80" s="16"/>
+      <c r="N80" s="15"/>
+      <c r="O80" s="15"/>
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="4"/>
@@ -3430,8 +3436,8 @@
   <sheetPr/>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3440,40 +3446,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
@@ -3738,40 +3744,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
@@ -3851,40 +3857,40 @@
       <c r="O5" s="10"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="2" t="s">
@@ -3987,40 +3993,40 @@
       <c r="O30" s="9"/>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="2" t="s">
@@ -4180,8 +4186,8 @@
   <sheetPr/>
   <dimension ref="A1:R203"/>
   <sheetViews>
-    <sheetView topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="F199" sqref="F199:J201"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="H203" sqref="H203:J203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4297,11 +4303,11 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -4321,15 +4327,13 @@
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="K6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4"/>
@@ -4342,16 +4346,16 @@
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -4368,11 +4372,11 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -4389,50 +4393,92 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
     </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="2" t="s">
@@ -4485,7 +4531,7 @@
       </c>
       <c r="L30" s="10"/>
       <c r="M30" s="10" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
@@ -4505,9 +4551,13 @@
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
+      <c r="K31" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
+      <c r="M31" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
     </row>
@@ -4526,11 +4576,11 @@
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="4"/>
@@ -4539,11 +4589,11 @@
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
@@ -4560,11 +4610,11 @@
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
@@ -4592,40 +4642,40 @@
       <c r="O35" s="11"/>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
+      <c r="A50" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="2" t="s">
@@ -4656,7 +4706,7 @@
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -4678,7 +4728,7 @@
       </c>
       <c r="L53" s="10"/>
       <c r="M53" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N53" s="10"/>
       <c r="O53" s="10"/>
@@ -4699,11 +4749,11 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
@@ -4724,12 +4774,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="L55" s="3"/>
-      <c r="M55" s="3" t="s">
-        <v>98</v>
-      </c>
+      <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
     </row>
@@ -4745,11 +4793,11 @@
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="3" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="L56" s="3"/>
       <c r="M56" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
@@ -4766,11 +4814,11 @@
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="3" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="L57" s="3"/>
       <c r="M57" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
@@ -4787,54 +4835,92 @@
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="3" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="L58" s="3"/>
       <c r="M58" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="11:12">
-      <c r="K59" s="11"/>
-      <c r="L59" s="11"/>
+    <row r="59" spans="1:15">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
     </row>
     <row r="73" spans="1:15">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8"/>
-      <c r="L73" s="8"/>
-      <c r="M73" s="8"/>
-      <c r="N73" s="8"/>
-      <c r="O73" s="8"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
     </row>
     <row r="74" spans="1:15">
-      <c r="A74" s="8"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
-      <c r="M74" s="8"/>
-      <c r="N74" s="8"/>
-      <c r="O74" s="8"/>
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="2" t="s">
@@ -4865,7 +4951,7 @@
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
@@ -4887,7 +4973,7 @@
       </c>
       <c r="L76" s="10"/>
       <c r="M76" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N76" s="10"/>
       <c r="O76" s="10"/>
@@ -4908,10 +4994,12 @@
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
+      <c r="M77" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
     </row>
@@ -4930,13 +5018,13 @@
       </c>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
-      <c r="K78" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L78" s="3"/>
-      <c r="M78" s="3"/>
-      <c r="N78" s="3"/>
-      <c r="O78" s="3"/>
+      <c r="K78" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L78" s="10"/>
+      <c r="M78" s="10"/>
+      <c r="N78" s="10"/>
+      <c r="O78" s="10"/>
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="4"/>
@@ -4945,7 +5033,7 @@
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="3" t="s">
@@ -4954,10 +5042,12 @@
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L79" s="3"/>
-      <c r="M79" s="3"/>
+      <c r="M79" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
     </row>
@@ -4973,10 +5063,12 @@
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="L80" s="3"/>
-      <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
     </row>
@@ -4992,12 +5084,14 @@
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L81" s="3"/>
-      <c r="M81" s="4"/>
-      <c r="N81" s="4"/>
-      <c r="O81" s="4"/>
+      <c r="M81" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="4"/>
@@ -5011,12 +5105,14 @@
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
       <c r="K82" s="3" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="L82" s="3"/>
-      <c r="M82" s="4"/>
-      <c r="N82" s="4"/>
-      <c r="O82" s="4"/>
+      <c r="M82" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="4"/>
@@ -5030,12 +5126,14 @@
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="3" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="L83" s="3"/>
-      <c r="M83" s="4"/>
-      <c r="N83" s="4"/>
-      <c r="O83" s="4"/>
+      <c r="M83" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
     </row>
     <row r="84" spans="1:15">
       <c r="A84" s="4"/>
@@ -5049,48 +5147,92 @@
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L84" s="3"/>
-      <c r="M84" s="4"/>
-      <c r="N84" s="4"/>
-      <c r="O84" s="4"/>
+      <c r="M84" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="1:15">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
     </row>
     <row r="103" spans="1:15">
-      <c r="A103" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B103" s="8"/>
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="8"/>
-      <c r="H103" s="8"/>
-      <c r="I103" s="8"/>
-      <c r="J103" s="8"/>
-      <c r="K103" s="8"/>
-      <c r="L103" s="8"/>
-      <c r="M103" s="8"/>
-      <c r="N103" s="8"/>
-      <c r="O103" s="8"/>
+      <c r="A103" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
     </row>
     <row r="104" spans="1:15">
-      <c r="A104" s="8"/>
-      <c r="B104" s="8"/>
-      <c r="C104" s="8"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="8"/>
-      <c r="F104" s="8"/>
-      <c r="G104" s="8"/>
-      <c r="H104" s="8"/>
-      <c r="I104" s="8"/>
-      <c r="J104" s="8"/>
-      <c r="K104" s="8"/>
-      <c r="L104" s="8"/>
-      <c r="M104" s="8"/>
-      <c r="N104" s="8"/>
-      <c r="O104" s="8"/>
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
     </row>
     <row r="105" spans="1:15">
       <c r="A105" s="2" t="s">
@@ -5121,7 +5263,7 @@
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -5142,11 +5284,11 @@
         <v>14</v>
       </c>
       <c r="L106" s="10"/>
-      <c r="M106" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="N106" s="3"/>
-      <c r="O106" s="3"/>
+      <c r="M106" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="N106" s="10"/>
+      <c r="O106" s="10"/>
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="3"/>
@@ -5163,11 +5305,15 @@
       </c>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
-      <c r="K107" s="4"/>
-      <c r="L107" s="4"/>
-      <c r="M107" s="4"/>
-      <c r="N107" s="4"/>
-      <c r="O107" s="4"/>
+      <c r="K107" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L107" s="3"/>
+      <c r="M107" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N107" s="3"/>
+      <c r="O107" s="3"/>
     </row>
     <row r="108" spans="1:15">
       <c r="A108" s="3"/>
@@ -5197,7 +5343,7 @@
       <c r="D109" s="3"/>
       <c r="E109" s="4"/>
       <c r="F109" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G109" s="3"/>
       <c r="H109" s="3" t="s">
@@ -5222,7 +5368,7 @@
       </c>
       <c r="G110" s="3"/>
       <c r="H110" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
@@ -5239,11 +5385,11 @@
       <c r="D111" s="3"/>
       <c r="E111" s="4"/>
       <c r="F111" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G111" s="3"/>
       <c r="H111" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
@@ -5254,40 +5400,40 @@
       <c r="O111" s="4"/>
     </row>
     <row r="134" spans="1:15">
-      <c r="A134" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B134" s="8"/>
-      <c r="C134" s="8"/>
-      <c r="D134" s="8"/>
-      <c r="E134" s="8"/>
-      <c r="F134" s="8"/>
-      <c r="G134" s="8"/>
-      <c r="H134" s="8"/>
-      <c r="I134" s="8"/>
-      <c r="J134" s="8"/>
-      <c r="K134" s="8"/>
-      <c r="L134" s="8"/>
-      <c r="M134" s="8"/>
-      <c r="N134" s="8"/>
-      <c r="O134" s="8"/>
+      <c r="A134" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
+      <c r="O134" s="1"/>
     </row>
     <row r="135" spans="1:15">
-      <c r="A135" s="8"/>
-      <c r="B135" s="8"/>
-      <c r="C135" s="8"/>
-      <c r="D135" s="8"/>
-      <c r="E135" s="8"/>
-      <c r="F135" s="8"/>
-      <c r="G135" s="8"/>
-      <c r="H135" s="8"/>
-      <c r="I135" s="8"/>
-      <c r="J135" s="8"/>
-      <c r="K135" s="8"/>
-      <c r="L135" s="8"/>
-      <c r="M135" s="8"/>
-      <c r="N135" s="8"/>
-      <c r="O135" s="8"/>
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="M135" s="1"/>
+      <c r="N135" s="1"/>
+      <c r="O135" s="1"/>
     </row>
     <row r="136" spans="1:15">
       <c r="A136" s="2" t="s">
@@ -5318,7 +5464,7 @@
     </row>
     <row r="137" spans="1:15">
       <c r="A137" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -5335,15 +5481,15 @@
       </c>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
-      <c r="K137" s="3" t="s">
+      <c r="K137" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L137" s="3"/>
-      <c r="M137" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="N137" s="3"/>
-      <c r="O137" s="3"/>
+      <c r="L137" s="10"/>
+      <c r="M137" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="N137" s="10"/>
+      <c r="O137" s="10"/>
     </row>
     <row r="138" spans="1:15">
       <c r="A138" s="4"/>
@@ -5360,11 +5506,15 @@
       </c>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
-      <c r="K138" s="4"/>
-      <c r="L138" s="4"/>
-      <c r="M138" s="4"/>
-      <c r="N138" s="4"/>
-      <c r="O138" s="4"/>
+      <c r="K138" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L138" s="3"/>
+      <c r="M138" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N138" s="3"/>
+      <c r="O138" s="3"/>
     </row>
     <row r="139" spans="1:15">
       <c r="A139" s="4"/>
@@ -5394,7 +5544,7 @@
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
       <c r="F140" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G140" s="3"/>
       <c r="H140" s="3" t="s">
@@ -5409,45 +5559,45 @@
       <c r="O140" s="4"/>
     </row>
     <row r="165" spans="1:18">
-      <c r="A165" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B165" s="8"/>
-      <c r="C165" s="8"/>
-      <c r="D165" s="8"/>
-      <c r="E165" s="8"/>
-      <c r="F165" s="8"/>
-      <c r="G165" s="8"/>
-      <c r="H165" s="8"/>
-      <c r="I165" s="8"/>
-      <c r="J165" s="8"/>
-      <c r="K165" s="8"/>
-      <c r="L165" s="8"/>
-      <c r="M165" s="8"/>
-      <c r="N165" s="8"/>
-      <c r="O165" s="8"/>
+      <c r="A165" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+      <c r="H165" s="1"/>
+      <c r="I165" s="1"/>
+      <c r="J165" s="1"/>
+      <c r="K165" s="1"/>
+      <c r="L165" s="1"/>
+      <c r="M165" s="1"/>
+      <c r="N165" s="1"/>
+      <c r="O165" s="1"/>
       <c r="P165" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Q165" s="6"/>
       <c r="R165" s="6"/>
     </row>
     <row r="166" spans="1:18">
-      <c r="A166" s="8"/>
-      <c r="B166" s="8"/>
-      <c r="C166" s="8"/>
-      <c r="D166" s="8"/>
-      <c r="E166" s="8"/>
-      <c r="F166" s="8"/>
-      <c r="G166" s="8"/>
-      <c r="H166" s="8"/>
-      <c r="I166" s="8"/>
-      <c r="J166" s="8"/>
-      <c r="K166" s="8"/>
-      <c r="L166" s="8"/>
-      <c r="M166" s="8"/>
-      <c r="N166" s="8"/>
-      <c r="O166" s="8"/>
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+      <c r="H166" s="1"/>
+      <c r="I166" s="1"/>
+      <c r="J166" s="1"/>
+      <c r="K166" s="1"/>
+      <c r="L166" s="1"/>
+      <c r="M166" s="1"/>
+      <c r="N166" s="1"/>
+      <c r="O166" s="1"/>
       <c r="P166" s="6"/>
       <c r="Q166" s="6"/>
       <c r="R166" s="6"/>
@@ -5479,16 +5629,16 @@
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
       <c r="P167" s="6" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q167" s="6" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="R167" s="6"/>
     </row>
     <row r="168" spans="1:18">
       <c r="A168" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -5505,20 +5655,20 @@
       </c>
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
-      <c r="K168" s="3" t="s">
+      <c r="K168" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L168" s="3"/>
-      <c r="M168" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="N168" s="3"/>
-      <c r="O168" s="3"/>
+      <c r="L168" s="10"/>
+      <c r="M168" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="N168" s="10"/>
+      <c r="O168" s="10"/>
       <c r="P168" s="6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q168" s="6" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="R168" s="6"/>
     </row>
@@ -5538,19 +5688,19 @@
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
       <c r="K169" s="3" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="L169" s="3"/>
       <c r="M169" s="3" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="N169" s="3"/>
       <c r="O169" s="3"/>
       <c r="P169" s="6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q169" s="6" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="R169" s="6"/>
     </row>
@@ -5569,15 +5719,13 @@
       </c>
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
-      <c r="K170" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="L170" s="3"/>
-      <c r="M170" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="N170" s="3"/>
-      <c r="O170" s="3"/>
+      <c r="K170" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="L170" s="10"/>
+      <c r="M170" s="10"/>
+      <c r="N170" s="10"/>
+      <c r="O170" s="10"/>
       <c r="P170" s="6"/>
       <c r="Q170" s="12"/>
       <c r="R170" s="12"/>
@@ -5594,11 +5742,11 @@
       <c r="I171" s="4"/>
       <c r="J171" s="4"/>
       <c r="K171" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L171" s="3"/>
       <c r="M171" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N171" s="3"/>
       <c r="O171" s="3"/>
@@ -5618,11 +5766,11 @@
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
       <c r="K172" s="3" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="L172" s="3"/>
       <c r="M172" s="3" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="N172" s="3"/>
       <c r="O172" s="3"/>
@@ -5642,11 +5790,11 @@
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
       <c r="K173" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L173" s="3"/>
       <c r="M173" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="N173" s="3"/>
       <c r="O173" s="3"/>
@@ -5666,11 +5814,11 @@
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
       <c r="K174" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="L174" s="3"/>
       <c r="M174" s="3" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="N174" s="3"/>
       <c r="O174" s="3"/>
@@ -5690,11 +5838,11 @@
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
       <c r="K175" s="3" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="L175" s="3"/>
       <c r="M175" s="3" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="N175" s="3"/>
       <c r="O175" s="3"/>
@@ -5714,11 +5862,11 @@
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
       <c r="K176" s="3" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="L176" s="3"/>
       <c r="M176" s="3" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="N176" s="3"/>
       <c r="O176" s="3"/>
@@ -5726,46 +5874,89 @@
       <c r="Q176" s="7"/>
       <c r="R176" s="7"/>
     </row>
-    <row r="177" spans="16:18">
-      <c r="P177" s="11"/>
-      <c r="Q177" s="11"/>
-      <c r="R177" s="11"/>
+    <row r="177" spans="1:18">
+      <c r="A177" s="4"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
+      <c r="E177" s="4"/>
+      <c r="F177" s="4"/>
+      <c r="G177" s="4"/>
+      <c r="H177" s="4"/>
+      <c r="I177" s="4"/>
+      <c r="J177" s="4"/>
+      <c r="K177" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="L177" s="3"/>
+      <c r="M177" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="N177" s="3"/>
+      <c r="O177" s="3"/>
+      <c r="P177" s="7"/>
+      <c r="Q177" s="7"/>
+      <c r="R177" s="7"/>
+    </row>
+    <row r="178" spans="1:18">
+      <c r="A178" s="4"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="4"/>
+      <c r="D178" s="4"/>
+      <c r="E178" s="4"/>
+      <c r="F178" s="4"/>
+      <c r="G178" s="4"/>
+      <c r="H178" s="4"/>
+      <c r="I178" s="4"/>
+      <c r="J178" s="4"/>
+      <c r="K178" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="L178" s="3"/>
+      <c r="M178" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="N178" s="3"/>
+      <c r="O178" s="3"/>
+      <c r="P178" s="7"/>
+      <c r="Q178" s="7"/>
+      <c r="R178" s="7"/>
     </row>
     <row r="196" spans="1:15">
-      <c r="A196" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B196" s="8"/>
-      <c r="C196" s="8"/>
-      <c r="D196" s="8"/>
-      <c r="E196" s="8"/>
-      <c r="F196" s="8"/>
-      <c r="G196" s="8"/>
-      <c r="H196" s="8"/>
-      <c r="I196" s="8"/>
-      <c r="J196" s="8"/>
-      <c r="K196" s="8"/>
-      <c r="L196" s="8"/>
-      <c r="M196" s="8"/>
-      <c r="N196" s="8"/>
-      <c r="O196" s="8"/>
+      <c r="A196" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
+      <c r="F196" s="1"/>
+      <c r="G196" s="1"/>
+      <c r="H196" s="1"/>
+      <c r="I196" s="1"/>
+      <c r="J196" s="1"/>
+      <c r="K196" s="1"/>
+      <c r="L196" s="1"/>
+      <c r="M196" s="1"/>
+      <c r="N196" s="1"/>
+      <c r="O196" s="1"/>
     </row>
     <row r="197" spans="1:15">
-      <c r="A197" s="8"/>
-      <c r="B197" s="8"/>
-      <c r="C197" s="8"/>
-      <c r="D197" s="8"/>
-      <c r="E197" s="8"/>
-      <c r="F197" s="8"/>
-      <c r="G197" s="8"/>
-      <c r="H197" s="8"/>
-      <c r="I197" s="8"/>
-      <c r="J197" s="8"/>
-      <c r="K197" s="8"/>
-      <c r="L197" s="8"/>
-      <c r="M197" s="8"/>
-      <c r="N197" s="8"/>
-      <c r="O197" s="8"/>
+      <c r="A197" s="1"/>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1"/>
+      <c r="F197" s="1"/>
+      <c r="G197" s="1"/>
+      <c r="H197" s="1"/>
+      <c r="I197" s="1"/>
+      <c r="J197" s="1"/>
+      <c r="K197" s="1"/>
+      <c r="L197" s="1"/>
+      <c r="M197" s="1"/>
+      <c r="N197" s="1"/>
+      <c r="O197" s="1"/>
     </row>
     <row r="198" spans="1:15">
       <c r="A198" s="2" t="s">
@@ -5796,7 +5987,7 @@
     </row>
     <row r="199" spans="1:15">
       <c r="A199" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -5818,7 +6009,7 @@
       </c>
       <c r="L199" s="3"/>
       <c r="M199" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N199" s="3"/>
       <c r="O199" s="3"/>
@@ -5838,9 +6029,13 @@
       </c>
       <c r="I200" s="3"/>
       <c r="J200" s="3"/>
-      <c r="K200" s="3"/>
+      <c r="K200" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="L200" s="3"/>
-      <c r="M200" s="3"/>
+      <c r="M200" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="N200" s="3"/>
       <c r="O200" s="3"/>
     </row>
@@ -5872,11 +6067,11 @@
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
       <c r="F202" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G202" s="3"/>
       <c r="H202" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I202" s="3"/>
       <c r="J202" s="3"/>
@@ -5893,7 +6088,7 @@
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
       <c r="F203" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G203" s="3"/>
       <c r="H203" s="3" t="s">
@@ -5908,7 +6103,7 @@
       <c r="O203" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="206">
+  <mergeCells count="224">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -5924,8 +6119,7 @@
     <mergeCell ref="M5:O5"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="K6:O6"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="K7:L7"/>
@@ -5934,6 +6128,10 @@
     <mergeCell ref="M8:O8"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="M9:O9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:O11"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="H29:J29"/>
@@ -5949,8 +6147,7 @@
     <mergeCell ref="M31:O31"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="K32:O32"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="H33:J33"/>
     <mergeCell ref="K33:L33"/>
@@ -5976,8 +6173,7 @@
     <mergeCell ref="M54:O54"/>
     <mergeCell ref="F55:G55"/>
     <mergeCell ref="H55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="K55:O55"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="M56:O56"/>
     <mergeCell ref="K57:L57"/>
@@ -5985,6 +6181,9 @@
     <mergeCell ref="K58:L58"/>
     <mergeCell ref="M58:O58"/>
     <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="M60:O60"/>
     <mergeCell ref="A75:D75"/>
     <mergeCell ref="F75:G75"/>
     <mergeCell ref="H75:J75"/>
@@ -6000,8 +6199,7 @@
     <mergeCell ref="M77:O77"/>
     <mergeCell ref="F78:G78"/>
     <mergeCell ref="H78:J78"/>
-    <mergeCell ref="K78:L78"/>
-    <mergeCell ref="M78:O78"/>
+    <mergeCell ref="K78:O78"/>
     <mergeCell ref="F79:G79"/>
     <mergeCell ref="H79:J79"/>
     <mergeCell ref="K79:L79"/>
@@ -6009,9 +6207,17 @@
     <mergeCell ref="K80:L80"/>
     <mergeCell ref="M80:O80"/>
     <mergeCell ref="K81:L81"/>
+    <mergeCell ref="M81:O81"/>
     <mergeCell ref="K82:L82"/>
+    <mergeCell ref="M82:O82"/>
     <mergeCell ref="K83:L83"/>
+    <mergeCell ref="M83:O83"/>
     <mergeCell ref="K84:L84"/>
+    <mergeCell ref="M84:O84"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="M85:O85"/>
+    <mergeCell ref="K86:L86"/>
+    <mergeCell ref="M86:O86"/>
     <mergeCell ref="A105:D105"/>
     <mergeCell ref="F105:G105"/>
     <mergeCell ref="H105:J105"/>
@@ -6024,6 +6230,8 @@
     <mergeCell ref="A107:D107"/>
     <mergeCell ref="F107:G107"/>
     <mergeCell ref="H107:J107"/>
+    <mergeCell ref="K107:L107"/>
+    <mergeCell ref="M107:O107"/>
     <mergeCell ref="A108:D108"/>
     <mergeCell ref="F108:G108"/>
     <mergeCell ref="H108:J108"/>
@@ -6047,6 +6255,8 @@
     <mergeCell ref="M137:O137"/>
     <mergeCell ref="F138:G138"/>
     <mergeCell ref="H138:J138"/>
+    <mergeCell ref="K138:L138"/>
+    <mergeCell ref="M138:O138"/>
     <mergeCell ref="F139:G139"/>
     <mergeCell ref="H139:J139"/>
     <mergeCell ref="F140:G140"/>
@@ -6069,8 +6279,7 @@
     <mergeCell ref="Q169:R169"/>
     <mergeCell ref="F170:G170"/>
     <mergeCell ref="H170:J170"/>
-    <mergeCell ref="K170:L170"/>
-    <mergeCell ref="M170:O170"/>
+    <mergeCell ref="K170:O170"/>
     <mergeCell ref="K171:L171"/>
     <mergeCell ref="M171:O171"/>
     <mergeCell ref="K172:L172"/>
@@ -6083,6 +6292,10 @@
     <mergeCell ref="M175:O175"/>
     <mergeCell ref="K176:L176"/>
     <mergeCell ref="M176:O176"/>
+    <mergeCell ref="K177:L177"/>
+    <mergeCell ref="M177:O177"/>
+    <mergeCell ref="K178:L178"/>
+    <mergeCell ref="M178:O178"/>
     <mergeCell ref="A198:D198"/>
     <mergeCell ref="F198:G198"/>
     <mergeCell ref="H198:J198"/>
@@ -6134,7 +6347,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6197,13 +6410,13 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>65</v>
@@ -6248,7 +6461,7 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
@@ -6298,7 +6511,7 @@
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -6315,7 +6528,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
@@ -6369,26 +6582,26 @@
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q31" s="6"/>
       <c r="R31" s="6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="S31" s="6"/>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3" t="s">
@@ -6402,11 +6615,11 @@
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q32" s="6"/>
       <c r="R32" s="6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="S32" s="6"/>
     </row>
@@ -6417,11 +6630,11 @@
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
@@ -6442,11 +6655,11 @@
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
@@ -6492,11 +6705,11 @@
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
@@ -6515,7 +6728,7 @@
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -6578,13 +6791,13 @@
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
@@ -6592,11 +6805,11 @@
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L63" s="3"/>
       <c r="M63" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
@@ -6613,11 +6826,11 @@
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L64" s="3"/>
       <c r="M64" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
@@ -6634,11 +6847,11 @@
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L65" s="3"/>
       <c r="M65" s="3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
@@ -6655,11 +6868,11 @@
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L66" s="3"/>
       <c r="M66" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
@@ -6701,7 +6914,7 @@
       </c>
       <c r="L68" s="3"/>
       <c r="M68" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
@@ -6722,7 +6935,7 @@
       </c>
       <c r="L69" s="3"/>
       <c r="M69" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
@@ -6739,11 +6952,11 @@
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L70" s="3"/>
       <c r="M70" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
@@ -6764,7 +6977,7 @@
       </c>
       <c r="L71" s="3"/>
       <c r="M71" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>

--- a/需求分析/需求接口 v1.0.0.xlsx
+++ b/需求分析/需求接口 v1.0.0.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22635" windowHeight="11730" activeTab="4"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="接口说明" sheetId="5" r:id="rId1"/>
-    <sheet name="注册登录" sheetId="1" r:id="rId2"/>
-    <sheet name="申请体验" sheetId="2" r:id="rId3"/>
-    <sheet name="找回密码" sheetId="3" r:id="rId4"/>
-    <sheet name="我的好友" sheetId="4" r:id="rId5"/>
-    <sheet name="即时通讯" sheetId="6" r:id="rId6"/>
+    <sheet name="更新说明" sheetId="7" r:id="rId2"/>
+    <sheet name="注册登录" sheetId="1" r:id="rId3"/>
+    <sheet name="申请体验" sheetId="2" r:id="rId4"/>
+    <sheet name="找回密码" sheetId="3" r:id="rId5"/>
+    <sheet name="我的好友" sheetId="4" r:id="rId6"/>
+    <sheet name="即时通讯" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176">
   <si>
     <t>红色代表异常接口</t>
   </si>
@@ -33,6 +34,45 @@
     <t>蓝色代表已开通但未验证</t>
   </si>
   <si>
+    <t>更新时间</t>
+  </si>
+  <si>
+    <t>更新标签</t>
+  </si>
+  <si>
+    <t>更新接口</t>
+  </si>
+  <si>
+    <t>更新内容</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>2017年7月18日 16:43:53</t>
+  </si>
+  <si>
+    <t>注册登录</t>
+  </si>
+  <si>
+    <t>获取验证码</t>
+  </si>
+  <si>
+    <t>请求地址、返回结果</t>
+  </si>
+  <si>
+    <t>未验证</t>
+  </si>
+  <si>
+    <t>验证短信验证码</t>
+  </si>
+  <si>
+    <t>找回密码</t>
+  </si>
+  <si>
+    <t>修改密码</t>
+  </si>
+  <si>
     <t>用户登录</t>
   </si>
   <si>
@@ -117,18 +157,15 @@
     <t>用户Id</t>
   </si>
   <si>
-    <t>获取验证码</t>
+    <t>getRegisterVerify.action</t>
+  </si>
+  <si>
+    <t>1表示发送成功，2表示发送失败，3表示该账号未建档，4表示该账号已注册</t>
   </si>
   <si>
     <t>registerVerify.action</t>
   </si>
   <si>
-    <t>1表示发送成功，2表示该账号未建档，3表示该账号已注册</t>
-  </si>
-  <si>
-    <t>验证短信验证码</t>
-  </si>
-  <si>
     <t>等于1表示验证成功并返回以下数据</t>
   </si>
   <si>
@@ -228,13 +265,13 @@
     <t>职位</t>
   </si>
   <si>
-    <t>passwordrVerify.action</t>
-  </si>
-  <si>
-    <t>1表示发送成功，2表示该账号未建档</t>
-  </si>
-  <si>
-    <t>修改密码</t>
+    <t>getPasswordVerify.action</t>
+  </si>
+  <si>
+    <t>1表示发送成功，2表示发送失败，3找不到该用户</t>
+  </si>
+  <si>
+    <t>passwordVerify.action</t>
   </si>
   <si>
     <t>updatePassword.action</t>
@@ -554,8 +591,15 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -576,27 +620,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -609,23 +637,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -654,6 +681,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -661,15 +704,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -677,7 +714,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -722,19 +759,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,6 +807,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -764,25 +831,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,31 +855,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,13 +885,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,19 +903,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,6 +920,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -901,26 +956,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -942,17 +988,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -961,25 +996,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -991,10 +1028,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1003,103 +1040,103 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1108,32 +1145,32 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1173,19 +1210,25 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="40" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="46" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="35" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="35" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="19">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="19" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="28" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="46" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="43" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="28" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="46" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1594,44 +1637,44 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
@@ -1687,11 +1730,220 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="27.875" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="23.75" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="14" customFormat="1" ht="20.25" spans="1:5">
+      <c r="A1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B6"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:O167"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:O6"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54:O54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1701,7 +1953,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1737,25 +1989,25 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1764,29 +2016,29 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -1798,20 +2050,20 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -1823,16 +2075,16 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="10" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
@@ -1851,11 +2103,11 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -1872,11 +2124,11 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -1893,11 +2145,11 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -1914,11 +2166,11 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -1934,15 +2186,15 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
+      <c r="K11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="4"/>
@@ -1956,11 +2208,11 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="3" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
@@ -2031,62 +2283,62 @@
       <c r="O23" s="11"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
+      <c r="A30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -2095,29 +2347,29 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="10" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="10" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
       <c r="K33" s="10" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="L33" s="10"/>
       <c r="M33" s="10" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
@@ -2129,11 +2381,11 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="10" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
@@ -2144,62 +2396,62 @@
       <c r="O34" s="10"/>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="13"/>
-      <c r="O50" s="13"/>
+      <c r="A50" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="13"/>
-      <c r="O51" s="13"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
@@ -2207,56 +2459,56 @@
       <c r="O52" s="2"/>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
+      <c r="A53" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L54" s="9"/>
-      <c r="M54" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N54" s="9"/>
-      <c r="O54" s="9"/>
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="4"/>
@@ -2265,27 +2517,90 @@
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="3" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
-      <c r="K55" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L55" s="9"/>
-      <c r="M55" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N55" s="9"/>
-      <c r="O55" s="9"/>
+      <c r="K55" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="8" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -2321,25 +2636,25 @@
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
@@ -2347,58 +2662,56 @@
       <c r="O74" s="2"/>
     </row>
     <row r="75" spans="1:15">
-      <c r="A75" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F75" s="9" t="s">
+      <c r="A75" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I75" s="9"/>
-      <c r="J75" s="9"/>
-      <c r="K75" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L75" s="10"/>
-      <c r="M75" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="N75" s="10"/>
-      <c r="O75" s="10"/>
-    </row>
-    <row r="76" spans="1:15">
-      <c r="A76" s="9"/>
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I76" s="9"/>
-      <c r="J76" s="9"/>
-      <c r="K76" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L76" s="9"/>
-      <c r="M76" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N76" s="9"/>
-      <c r="O76" s="9"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="4"/>
@@ -2411,15 +2724,15 @@
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
-      <c r="K77" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L77" s="9"/>
-      <c r="M77" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N77" s="9"/>
-      <c r="O77" s="9"/>
+      <c r="K77" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="4"/>
@@ -2432,15 +2745,15 @@
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
-      <c r="K78" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L78" s="9"/>
-      <c r="M78" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N78" s="9"/>
-      <c r="O78" s="9"/>
+      <c r="K78" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="4"/>
@@ -2453,15 +2766,15 @@
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
-      <c r="K79" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L79" s="9"/>
-      <c r="M79" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="N79" s="9"/>
-      <c r="O79" s="9"/>
+      <c r="K79" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="4"/>
@@ -2474,15 +2787,15 @@
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
-      <c r="K80" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="L80" s="15"/>
-      <c r="M80" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="N80" s="15"/>
-      <c r="O80" s="15"/>
+      <c r="K80" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="4"/>
@@ -2495,15 +2808,15 @@
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
-      <c r="K81" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L81" s="9"/>
-      <c r="M81" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N81" s="9"/>
-      <c r="O81" s="9"/>
+      <c r="K81" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L81" s="13"/>
+      <c r="M81" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="N81" s="13"/>
+      <c r="O81" s="13"/>
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="4"/>
@@ -2516,15 +2829,15 @@
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
-      <c r="K82" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L82" s="9"/>
-      <c r="M82" s="9" t="s">
+      <c r="K82" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N82" s="9"/>
-      <c r="O82" s="9"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="4"/>
@@ -2538,18 +2851,39 @@
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L83" s="3"/>
       <c r="M83" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
     </row>
+    <row r="84" spans="1:15">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+    </row>
     <row r="106" spans="1:15">
       <c r="A106" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -2585,25 +2919,25 @@
     </row>
     <row r="108" spans="1:15">
       <c r="A108" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G108" s="2"/>
       <c r="H108" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
       <c r="K108" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
@@ -2612,29 +2946,29 @@
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="3" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G109" s="3"/>
       <c r="H109" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
       <c r="K109" s="3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="L109" s="3"/>
       <c r="M109" s="10" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="N109" s="10"/>
       <c r="O109" s="10"/>
@@ -2646,20 +2980,20 @@
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
       <c r="F110" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G110" s="3"/>
       <c r="H110" s="3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
       <c r="K110" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="L110" s="3"/>
       <c r="M110" s="3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N110" s="3"/>
       <c r="O110" s="3"/>
@@ -2671,20 +3005,20 @@
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
       <c r="F111" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G111" s="3"/>
       <c r="H111" s="3" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
       <c r="K111" s="10" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="L111" s="10"/>
       <c r="M111" s="10" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="N111" s="10"/>
       <c r="O111" s="10"/>
@@ -2696,11 +3030,11 @@
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
       <c r="F112" s="3" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G112" s="3"/>
       <c r="H112" s="3" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
@@ -2765,7 +3099,7 @@
     </row>
     <row r="135" spans="1:15">
       <c r="A135" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -2801,25 +3135,25 @@
     </row>
     <row r="137" spans="1:15">
       <c r="A137" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G137" s="2"/>
       <c r="H137" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I137" s="2"/>
       <c r="J137" s="2"/>
       <c r="K137" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="L137" s="2"/>
       <c r="M137" s="2"/>
@@ -2828,29 +3162,29 @@
     </row>
     <row r="138" spans="1:15">
       <c r="A138" s="9" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
       <c r="E138" s="10" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G138" s="3"/>
       <c r="H138" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
       <c r="K138" s="3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="L138" s="3"/>
       <c r="M138" s="10" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="N138" s="10"/>
       <c r="O138" s="10"/>
@@ -2862,20 +3196,20 @@
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
       <c r="F139" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G139" s="3"/>
       <c r="H139" s="3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
       <c r="K139" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="L139" s="3"/>
       <c r="M139" s="3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N139" s="3"/>
       <c r="O139" s="3"/>
@@ -2887,20 +3221,20 @@
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
       <c r="F140" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G140" s="3"/>
       <c r="H140" s="3" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
       <c r="K140" s="10" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="L140" s="10"/>
       <c r="M140" s="10" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="N140" s="10"/>
       <c r="O140" s="10"/>
@@ -2912,11 +3246,11 @@
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="3" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G141" s="3"/>
       <c r="H141" s="3" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
@@ -2996,7 +3330,7 @@
     </row>
     <row r="157" spans="1:15">
       <c r="A157" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -3032,25 +3366,25 @@
     </row>
     <row r="159" spans="1:15">
       <c r="A159" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G159" s="2"/>
       <c r="H159" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I159" s="2"/>
       <c r="J159" s="2"/>
       <c r="K159" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="L159" s="2"/>
       <c r="M159" s="2"/>
@@ -3059,29 +3393,29 @@
     </row>
     <row r="160" spans="1:15">
       <c r="A160" s="3" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G160" s="3"/>
       <c r="H160" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
       <c r="K160" s="3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="L160" s="3"/>
       <c r="M160" s="10" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="N160" s="10"/>
       <c r="O160" s="10"/>
@@ -3093,20 +3427,20 @@
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
       <c r="F161" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G161" s="3"/>
       <c r="H161" s="3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
       <c r="K161" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="L161" s="3"/>
       <c r="M161" s="3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N161" s="3"/>
       <c r="O161" s="3"/>
@@ -3118,20 +3452,20 @@
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
       <c r="F162" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G162" s="3"/>
       <c r="H162" s="3" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
       <c r="K162" s="10" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="L162" s="10"/>
       <c r="M162" s="10" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="N162" s="10"/>
       <c r="O162" s="10"/>
@@ -3143,11 +3477,11 @@
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
       <c r="F163" s="3" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G163" s="3"/>
       <c r="H163" s="3" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
@@ -3226,7 +3560,7 @@
       <c r="O167" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="203">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -3295,12 +3629,17 @@
     <mergeCell ref="M53:O53"/>
     <mergeCell ref="F54:G54"/>
     <mergeCell ref="H54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:O54"/>
+    <mergeCell ref="K54:O54"/>
     <mergeCell ref="F55:G55"/>
     <mergeCell ref="H55:J55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="M55:O55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="M58:O58"/>
     <mergeCell ref="A74:D74"/>
     <mergeCell ref="F74:G74"/>
     <mergeCell ref="H74:J74"/>
@@ -3312,8 +3651,7 @@
     <mergeCell ref="M75:O75"/>
     <mergeCell ref="F76:G76"/>
     <mergeCell ref="H76:J76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="M76:O76"/>
+    <mergeCell ref="K76:O76"/>
     <mergeCell ref="F77:G77"/>
     <mergeCell ref="H77:J77"/>
     <mergeCell ref="K77:L77"/>
@@ -3330,6 +3668,8 @@
     <mergeCell ref="M82:O82"/>
     <mergeCell ref="K83:L83"/>
     <mergeCell ref="M83:O83"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="M84:O84"/>
     <mergeCell ref="A108:D108"/>
     <mergeCell ref="F108:G108"/>
     <mergeCell ref="H108:J108"/>
@@ -3431,7 +3771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:O12"/>
@@ -3447,7 +3787,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="8" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -3483,25 +3823,25 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -3510,27 +3850,27 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="9" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="10" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="10" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
@@ -3542,11 +3882,11 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
@@ -3563,11 +3903,11 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="3" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -3584,11 +3924,11 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="3" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -3729,77 +4069,77 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:O49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="15" max="15" width="38.5" customWidth="1"/>
+    <col min="15" max="15" width="55.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
+      <c r="A1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -3808,29 +4148,29 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="10" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="10" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
@@ -3842,11 +4182,11 @@
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
@@ -3857,62 +4197,62 @@
       <c r="O5" s="10"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
+      <c r="A25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -3920,28 +4260,30 @@
       <c r="O27" s="2"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="9"/>
+      <c r="A28" s="9" t="s">
+        <v>83</v>
+      </c>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="10" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="9" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="10" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="L28" s="10"/>
       <c r="M28" s="10" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
@@ -3953,21 +4295,19 @@
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="9" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L29" s="9"/>
-      <c r="M29" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="M29" s="9"/>
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
     </row>
@@ -3978,77 +4318,81 @@
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="3" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
-      <c r="K30" s="9"/>
+      <c r="K30" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
+      <c r="M30" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="13"/>
+      <c r="A48" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="13"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
@@ -4057,29 +4401,29 @@
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="9" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
       <c r="E51" s="10" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="9" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="10" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="L51" s="10"/>
       <c r="M51" s="10" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="N51" s="10"/>
       <c r="O51" s="10"/>
@@ -4091,11 +4435,11 @@
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G52" s="9"/>
       <c r="H52" s="9" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -4123,7 +4467,7 @@
       <c r="O53" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="49">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -4148,8 +4492,7 @@
     <mergeCell ref="M28:O28"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="K29:O29"/>
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="H30:J30"/>
     <mergeCell ref="K30:L30"/>
@@ -4181,12 +4524,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:R203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+    <sheetView topLeftCell="A184" workbookViewId="0">
       <selection activeCell="H203" sqref="H203:J203"/>
     </sheetView>
   </sheetViews>
@@ -4197,7 +4540,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="8" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -4233,25 +4576,25 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -4260,29 +4603,29 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="9" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="10" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="10" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="10" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
@@ -4294,20 +4637,20 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -4319,16 +4662,16 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="10" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
@@ -4342,20 +4685,20 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="9" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="3" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -4372,11 +4715,11 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="3" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -4393,11 +4736,11 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="3" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -4414,11 +4757,11 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="3" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -4435,18 +4778,18 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="3" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="1" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -4482,25 +4825,25 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -4509,29 +4852,29 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="9" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="10" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="9" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="10" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="L30" s="10"/>
       <c r="M30" s="10" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
@@ -4543,20 +4886,20 @@
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="L31" s="3"/>
       <c r="M31" s="3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
@@ -4568,11 +4911,11 @@
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
@@ -4589,11 +4932,11 @@
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="3" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
@@ -4610,11 +4953,11 @@
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="3" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
@@ -4643,7 +4986,7 @@
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="1" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -4679,25 +5022,25 @@
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
@@ -4706,29 +5049,29 @@
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="9" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
       <c r="E53" s="10" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G53" s="9"/>
       <c r="H53" s="9" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="10" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="L53" s="10"/>
       <c r="M53" s="10" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="N53" s="10"/>
       <c r="O53" s="10"/>
@@ -4740,20 +5083,20 @@
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
@@ -4765,16 +5108,16 @@
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
@@ -4793,11 +5136,11 @@
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="3" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="L56" s="3"/>
       <c r="M56" s="3" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
@@ -4814,11 +5157,11 @@
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="3" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="L57" s="3"/>
       <c r="M57" s="3" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
@@ -4835,11 +5178,11 @@
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="3" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="L58" s="3"/>
       <c r="M58" s="3" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
@@ -4856,11 +5199,11 @@
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="K59" s="3" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="L59" s="3"/>
       <c r="M59" s="3" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
@@ -4877,18 +5220,18 @@
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="3" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="L60" s="3"/>
       <c r="M60" s="3" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="1" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -4924,25 +5267,25 @@
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G75" s="2"/>
       <c r="H75" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
@@ -4951,29 +5294,29 @@
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="9" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
       <c r="E76" s="10" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G76" s="9"/>
       <c r="H76" s="9" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="10" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="L76" s="10"/>
       <c r="M76" s="10" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="N76" s="10"/>
       <c r="O76" s="10"/>
@@ -4985,20 +5328,20 @@
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="L77" s="3"/>
       <c r="M77" s="3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
@@ -5010,16 +5353,16 @@
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="10" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="L78" s="10"/>
       <c r="M78" s="10"/>
@@ -5033,20 +5376,20 @@
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="3" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="3" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="L79" s="3"/>
       <c r="M79" s="3" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
@@ -5063,11 +5406,11 @@
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="3" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="L80" s="3"/>
       <c r="M80" s="3" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
@@ -5084,11 +5427,11 @@
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="3" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="L81" s="3"/>
       <c r="M81" s="3" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
@@ -5105,11 +5448,11 @@
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
       <c r="K82" s="3" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="L82" s="3"/>
       <c r="M82" s="3" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
@@ -5126,11 +5469,11 @@
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="3" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="L83" s="3"/>
       <c r="M83" s="3" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
@@ -5147,11 +5490,11 @@
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="3" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="L84" s="3"/>
       <c r="M84" s="3" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
@@ -5168,11 +5511,11 @@
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="3" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="L85" s="3"/>
       <c r="M85" s="3" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="N85" s="3"/>
       <c r="O85" s="3"/>
@@ -5189,18 +5532,18 @@
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="3" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="L86" s="3"/>
       <c r="M86" s="3" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="N86" s="3"/>
       <c r="O86" s="3"/>
     </row>
     <row r="103" spans="1:15">
       <c r="A103" s="1" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -5236,25 +5579,25 @@
     </row>
     <row r="105" spans="1:15">
       <c r="A105" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G105" s="2"/>
       <c r="H105" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
       <c r="K105" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
@@ -5263,29 +5606,29 @@
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="3" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G106" s="3"/>
       <c r="H106" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
       <c r="K106" s="10" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="L106" s="10"/>
       <c r="M106" s="10" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="N106" s="10"/>
       <c r="O106" s="10"/>
@@ -5297,20 +5640,20 @@
       <c r="D107" s="3"/>
       <c r="E107" s="4"/>
       <c r="F107" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G107" s="3"/>
       <c r="H107" s="3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
       <c r="K107" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="L107" s="3"/>
       <c r="M107" s="3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N107" s="3"/>
       <c r="O107" s="3"/>
@@ -5322,11 +5665,11 @@
       <c r="D108" s="3"/>
       <c r="E108" s="4"/>
       <c r="F108" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G108" s="3"/>
       <c r="H108" s="3" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
@@ -5343,11 +5686,11 @@
       <c r="D109" s="3"/>
       <c r="E109" s="4"/>
       <c r="F109" s="3" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G109" s="3"/>
       <c r="H109" s="3" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
@@ -5364,11 +5707,11 @@
       <c r="D110" s="3"/>
       <c r="E110" s="4"/>
       <c r="F110" s="3" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="G110" s="3"/>
       <c r="H110" s="3" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
@@ -5385,11 +5728,11 @@
       <c r="D111" s="3"/>
       <c r="E111" s="4"/>
       <c r="F111" s="3" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="G111" s="3"/>
       <c r="H111" s="3" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
@@ -5401,7 +5744,7 @@
     </row>
     <row r="134" spans="1:15">
       <c r="A134" s="1" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -5437,25 +5780,25 @@
     </row>
     <row r="136" spans="1:15">
       <c r="A136" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G136" s="2"/>
       <c r="H136" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I136" s="2"/>
       <c r="J136" s="2"/>
       <c r="K136" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="L136" s="2"/>
       <c r="M136" s="2"/>
@@ -5464,29 +5807,29 @@
     </row>
     <row r="137" spans="1:15">
       <c r="A137" s="3" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G137" s="3"/>
       <c r="H137" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
       <c r="K137" s="10" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="L137" s="10"/>
       <c r="M137" s="10" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="N137" s="10"/>
       <c r="O137" s="10"/>
@@ -5498,20 +5841,20 @@
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
       <c r="F138" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G138" s="3"/>
       <c r="H138" s="3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
       <c r="K138" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="L138" s="3"/>
       <c r="M138" s="3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N138" s="3"/>
       <c r="O138" s="3"/>
@@ -5523,11 +5866,11 @@
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
       <c r="F139" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G139" s="3"/>
       <c r="H139" s="3" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
@@ -5544,11 +5887,11 @@
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
       <c r="F140" s="3" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G140" s="3"/>
       <c r="H140" s="3" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
@@ -5560,7 +5903,7 @@
     </row>
     <row r="165" spans="1:18">
       <c r="A165" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -5577,7 +5920,7 @@
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
       <c r="P165" s="6" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="Q165" s="6"/>
       <c r="R165" s="6"/>
@@ -5604,71 +5947,71 @@
     </row>
     <row r="167" spans="1:18">
       <c r="A167" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G167" s="2"/>
       <c r="H167" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I167" s="2"/>
       <c r="J167" s="2"/>
       <c r="K167" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="L167" s="2"/>
       <c r="M167" s="2"/>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
       <c r="P167" s="6" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="Q167" s="6" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="R167" s="6"/>
     </row>
     <row r="168" spans="1:18">
       <c r="A168" s="3" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G168" s="3"/>
       <c r="H168" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
       <c r="K168" s="10" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="L168" s="10"/>
       <c r="M168" s="10" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="N168" s="10"/>
       <c r="O168" s="10"/>
       <c r="P168" s="6" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="Q168" s="6" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="R168" s="6"/>
     </row>
@@ -5679,28 +6022,28 @@
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
       <c r="F169" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G169" s="3"/>
       <c r="H169" s="3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
       <c r="K169" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="L169" s="3"/>
       <c r="M169" s="3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N169" s="3"/>
       <c r="O169" s="3"/>
       <c r="P169" s="6" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="Q169" s="6" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="R169" s="6"/>
     </row>
@@ -5711,16 +6054,16 @@
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
       <c r="F170" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G170" s="3"/>
       <c r="H170" s="3" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
       <c r="K170" s="10" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="L170" s="10"/>
       <c r="M170" s="10"/>
@@ -5742,11 +6085,11 @@
       <c r="I171" s="4"/>
       <c r="J171" s="4"/>
       <c r="K171" s="3" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="L171" s="3"/>
       <c r="M171" s="3" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="N171" s="3"/>
       <c r="O171" s="3"/>
@@ -5766,11 +6109,11 @@
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
       <c r="K172" s="3" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="L172" s="3"/>
       <c r="M172" s="3" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="N172" s="3"/>
       <c r="O172" s="3"/>
@@ -5790,11 +6133,11 @@
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
       <c r="K173" s="3" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="L173" s="3"/>
       <c r="M173" s="3" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="N173" s="3"/>
       <c r="O173" s="3"/>
@@ -5814,11 +6157,11 @@
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
       <c r="K174" s="3" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="L174" s="3"/>
       <c r="M174" s="3" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="N174" s="3"/>
       <c r="O174" s="3"/>
@@ -5838,11 +6181,11 @@
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
       <c r="K175" s="3" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="L175" s="3"/>
       <c r="M175" s="3" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="N175" s="3"/>
       <c r="O175" s="3"/>
@@ -5862,11 +6205,11 @@
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
       <c r="K176" s="3" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="L176" s="3"/>
       <c r="M176" s="3" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="N176" s="3"/>
       <c r="O176" s="3"/>
@@ -5886,11 +6229,11 @@
       <c r="I177" s="4"/>
       <c r="J177" s="4"/>
       <c r="K177" s="3" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="L177" s="3"/>
       <c r="M177" s="3" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="N177" s="3"/>
       <c r="O177" s="3"/>
@@ -5910,11 +6253,11 @@
       <c r="I178" s="4"/>
       <c r="J178" s="4"/>
       <c r="K178" s="3" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="L178" s="3"/>
       <c r="M178" s="3" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="N178" s="3"/>
       <c r="O178" s="3"/>
@@ -5924,7 +6267,7 @@
     </row>
     <row r="196" spans="1:15">
       <c r="A196" s="1" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -5960,25 +6303,25 @@
     </row>
     <row r="198" spans="1:15">
       <c r="A198" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G198" s="2"/>
       <c r="H198" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I198" s="2"/>
       <c r="J198" s="2"/>
       <c r="K198" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="L198" s="2"/>
       <c r="M198" s="2"/>
@@ -5987,29 +6330,29 @@
     </row>
     <row r="199" spans="1:15">
       <c r="A199" s="3" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G199" s="3"/>
       <c r="H199" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="I199" s="3"/>
       <c r="J199" s="3"/>
       <c r="K199" s="3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="L199" s="3"/>
       <c r="M199" s="3" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="N199" s="3"/>
       <c r="O199" s="3"/>
@@ -6021,20 +6364,20 @@
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
       <c r="F200" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G200" s="3"/>
       <c r="H200" s="3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I200" s="3"/>
       <c r="J200" s="3"/>
       <c r="K200" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="L200" s="3"/>
       <c r="M200" s="3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N200" s="3"/>
       <c r="O200" s="3"/>
@@ -6046,11 +6389,11 @@
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
       <c r="F201" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G201" s="3"/>
       <c r="H201" s="3" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="I201" s="3"/>
       <c r="J201" s="3"/>
@@ -6067,11 +6410,11 @@
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
       <c r="F202" s="3" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="G202" s="3"/>
       <c r="H202" s="3" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="I202" s="3"/>
       <c r="J202" s="3"/>
@@ -6088,11 +6431,11 @@
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
       <c r="F203" s="3" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G203" s="3"/>
       <c r="H203" s="3" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="I203" s="3"/>
       <c r="J203" s="3"/>
@@ -6334,7 +6677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:S71"/>
@@ -6347,7 +6690,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6383,25 +6726,25 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -6410,20 +6753,20 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -6440,11 +6783,11 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -6461,11 +6804,11 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="3" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -6511,7 +6854,7 @@
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="1" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -6528,7 +6871,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="6" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
@@ -6557,55 +6900,55 @@
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="6" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="Q31" s="6"/>
       <c r="R31" s="6" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="S31" s="6"/>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="3" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
@@ -6615,11 +6958,11 @@
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="6" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="Q32" s="6"/>
       <c r="R32" s="6" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="S32" s="6"/>
     </row>
@@ -6630,11 +6973,11 @@
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="3" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
@@ -6655,11 +6998,11 @@
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="3" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
@@ -6680,11 +7023,11 @@
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
@@ -6705,11 +7048,11 @@
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="3" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
@@ -6728,7 +7071,7 @@
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="1" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -6764,25 +7107,25 @@
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
@@ -6791,13 +7134,13 @@
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="3" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
@@ -6805,11 +7148,11 @@
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="L63" s="3"/>
       <c r="M63" s="3" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
@@ -6826,11 +7169,11 @@
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="L64" s="3"/>
       <c r="M64" s="3" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
@@ -6847,11 +7190,11 @@
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="L65" s="3"/>
       <c r="M65" s="3" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
@@ -6868,11 +7211,11 @@
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="L66" s="3"/>
       <c r="M66" s="3" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
@@ -6889,11 +7232,11 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="L67" s="3"/>
       <c r="M67" s="3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
@@ -6910,11 +7253,11 @@
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="L68" s="3"/>
       <c r="M68" s="3" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
@@ -6931,11 +7274,11 @@
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="L69" s="3"/>
       <c r="M69" s="3" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
@@ -6952,11 +7295,11 @@
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="3" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="L70" s="3"/>
       <c r="M70" s="3" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
@@ -6973,11 +7316,11 @@
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
       <c r="K71" s="3" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="L71" s="3"/>
       <c r="M71" s="3" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>

--- a/需求分析/需求接口 v1.0.0.xlsx
+++ b/需求分析/需求接口 v1.0.0.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="接口说明" sheetId="5" r:id="rId1"/>
     <sheet name="更新说明" sheetId="7" r:id="rId2"/>
-    <sheet name="注册登录" sheetId="1" r:id="rId3"/>
-    <sheet name="申请体验" sheetId="2" r:id="rId4"/>
-    <sheet name="找回密码" sheetId="3" r:id="rId5"/>
-    <sheet name="我的好友" sheetId="4" r:id="rId6"/>
-    <sheet name="即时通讯" sheetId="6" r:id="rId7"/>
+    <sheet name="问题接口" sheetId="8" r:id="rId3"/>
+    <sheet name="注册登录" sheetId="1" r:id="rId4"/>
+    <sheet name="申请体验" sheetId="2" r:id="rId5"/>
+    <sheet name="找回密码" sheetId="3" r:id="rId6"/>
+    <sheet name="我的好友" sheetId="4" r:id="rId7"/>
+    <sheet name="即时通讯" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185">
   <si>
     <t>红色代表异常接口</t>
   </si>
@@ -37,10 +38,10 @@
     <t>更新时间</t>
   </si>
   <si>
-    <t>更新标签</t>
-  </si>
-  <si>
-    <t>更新接口</t>
+    <t>接口标签</t>
+  </si>
+  <si>
+    <t>接口名称</t>
   </si>
   <si>
     <t>更新内容</t>
@@ -49,9 +50,6 @@
     <t>状态</t>
   </si>
   <si>
-    <t>2017年7月18日 16:43:53</t>
-  </si>
-  <si>
     <t>注册登录</t>
   </si>
   <si>
@@ -73,12 +71,54 @@
     <t>修改密码</t>
   </si>
   <si>
+    <t>请求地址</t>
+  </si>
+  <si>
+    <t>已验证</t>
+  </si>
+  <si>
+    <t>发起注册</t>
+  </si>
+  <si>
+    <t>请求参数</t>
+  </si>
+  <si>
+    <t>申请体验</t>
+  </si>
+  <si>
+    <t>提交体验申请</t>
+  </si>
+  <si>
+    <t>我的好友</t>
+  </si>
+  <si>
+    <t>搜索用户</t>
+  </si>
+  <si>
+    <t>问题类型</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>安全性</t>
+  </si>
+  <si>
+    <t>未解决</t>
+  </si>
+  <si>
+    <t>如果&lt;用户Id&gt;被他人知道，他人可直接调用接口进行密码的修改</t>
+  </si>
+  <si>
+    <t>稳定性</t>
+  </si>
+  <si>
+    <t>不能防止别人恶意注册</t>
+  </si>
+  <si>
     <t>用户登录</t>
   </si>
   <si>
-    <t>请求地址</t>
-  </si>
-  <si>
     <t>求情方式</t>
   </si>
   <si>
@@ -157,7 +197,7 @@
     <t>用户Id</t>
   </si>
   <si>
-    <t>getRegisterVerify.action</t>
+    <t>registerGetVerify.action</t>
   </si>
   <si>
     <t>1表示发送成功，2表示发送失败，3表示该账号未建档，4表示该账号已注册</t>
@@ -175,15 +215,15 @@
     <t>验证码</t>
   </si>
   <si>
-    <t>发起注册</t>
-  </si>
-  <si>
     <t>register.action</t>
   </si>
   <si>
     <t>等于1注册成功并返回以下数据</t>
   </si>
   <si>
+    <t>用户登录密码(md5)</t>
+  </si>
+  <si>
     <t xml:space="preserve">realName </t>
   </si>
   <si>
@@ -232,10 +272,7 @@
     <t>cardHand</t>
   </si>
   <si>
-    <t>提交体验申请</t>
-  </si>
-  <si>
-    <t>experienceRequest.action</t>
+    <t>registerExperience.action</t>
   </si>
   <si>
     <t>company</t>
@@ -265,13 +302,13 @@
     <t>职位</t>
   </si>
   <si>
-    <t>getPasswordVerify.action</t>
+    <t>retrieveGetPasswordVerify.action</t>
   </si>
   <si>
     <t>1表示发送成功，2表示发送失败，3找不到该用户</t>
   </si>
   <si>
-    <t>passwordVerify.action</t>
+    <t>retrievePasswordVerify.action</t>
   </si>
   <si>
     <t>updatePassword.action</t>
@@ -280,21 +317,15 @@
     <t>1代表修改成功</t>
   </si>
   <si>
-    <t>userPassowrd</t>
-  </si>
-  <si>
-    <t>密码</t>
-  </si>
-  <si>
-    <t>搜索用户</t>
-  </si>
-  <si>
     <t>user_findUserByPhone.action</t>
   </si>
   <si>
     <t>1代表请求成功并返回 result 数据，2表示没有此用户</t>
   </si>
   <si>
+    <t>friendPhone</t>
+  </si>
+  <si>
     <t>手机号码</t>
   </si>
   <si>
@@ -317,9 +348,6 @@
   </si>
   <si>
     <t>用户所在区域</t>
-  </si>
-  <si>
-    <t>friendPhone</t>
   </si>
   <si>
     <t>发送添加好友请求</t>
@@ -555,8 +583,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -598,8 +626,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -621,10 +650,26 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -643,39 +688,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -698,7 +727,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -706,15 +735,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -753,13 +781,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,61 +811,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,43 +853,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,13 +895,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,9 +962,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -957,21 +987,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -986,11 +1001,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1012,11 +1033,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1028,10 +1056,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1040,19 +1068,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1061,19 +1089,19 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1085,58 +1113,58 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1145,32 +1173,32 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1195,9 +1223,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="40">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="43" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="35" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1213,22 +1238,31 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="35" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="19" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="28" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="19">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="19" applyAlignment="1">
+    <xf numFmtId="31" fontId="1" fillId="7" borderId="0" xfId="21" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="43" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="43" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="21" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="28" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="36" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="46" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="46" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1619,12 +1653,11 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -1637,44 +1670,44 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
@@ -1697,24 +1730,24 @@
       <c r="G8" s="1"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1729,208 +1762,286 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="27.875" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="23.75" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="1" ht="20.25" spans="1:5">
-      <c r="A1" s="15" t="s">
+    <row r="1" s="15" customFormat="1" ht="20.25" spans="1:5">
+      <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="16">
+        <v>42934</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="E2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="19"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16" t="s">
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="19"/>
+      <c r="B4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="C4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16" t="s">
+      <c r="D5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="D6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="E6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16" t="s">
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="16">
+        <v>42935</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
+      <c r="B14" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="16"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="16"/>
+      <c r="B17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="16"/>
+      <c r="B18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A11:A18"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1938,12 +2049,88 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="20.125" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="3" max="4" width="20.25" customWidth="1"/>
+    <col min="5" max="5" width="60.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="13" customFormat="1" ht="20.25" spans="1:5">
+      <c r="A1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:O167"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54:O54"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1953,7 +2140,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1989,25 +2176,25 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -2016,29 +2203,29 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -2050,20 +2237,20 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -2075,21 +2262,21 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
+      <c r="K6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="3"/>
@@ -2103,11 +2290,11 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -2124,11 +2311,11 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -2145,11 +2332,11 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -2166,11 +2353,11 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -2186,15 +2373,15 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
+      <c r="K11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="4"/>
@@ -2208,137 +2395,137 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="3" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
+      <c r="A30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -2346,112 +2533,112 @@
       <c r="O32" s="2"/>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10" t="s">
+      <c r="A33" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
+      <c r="A50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
@@ -2460,29 +2647,29 @@
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="3" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="L53" s="3"/>
       <c r="M53" s="3" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
@@ -2494,16 +2681,16 @@
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
@@ -2517,20 +2704,20 @@
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="3" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="L55" s="3"/>
       <c r="M55" s="3" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
@@ -2547,11 +2734,11 @@
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="3" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="L56" s="3"/>
       <c r="M56" s="3" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
@@ -2568,11 +2755,11 @@
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="L57" s="3"/>
       <c r="M57" s="3" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
@@ -2589,72 +2776,72 @@
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="L58" s="3"/>
       <c r="M58" s="3" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
     </row>
     <row r="72" spans="1:15">
-      <c r="A72" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8"/>
-      <c r="L72" s="8"/>
-      <c r="M72" s="8"/>
-      <c r="N72" s="8"/>
-      <c r="O72" s="8"/>
+      <c r="A72" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
     </row>
     <row r="73" spans="1:15">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8"/>
-      <c r="L73" s="8"/>
-      <c r="M73" s="8"/>
-      <c r="N73" s="8"/>
-      <c r="O73" s="8"/>
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
@@ -2663,29 +2850,29 @@
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="3" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="L75" s="3"/>
       <c r="M75" s="3" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
@@ -2697,16 +2884,16 @@
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="3" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
@@ -2725,11 +2912,11 @@
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="3" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="L77" s="3"/>
       <c r="M77" s="3" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
@@ -2746,11 +2933,11 @@
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
       <c r="K78" s="3" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="L78" s="3"/>
       <c r="M78" s="3" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
@@ -2767,11 +2954,11 @@
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="L79" s="3"/>
       <c r="M79" s="3" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
@@ -2788,11 +2975,11 @@
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="L80" s="3"/>
       <c r="M80" s="3" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
@@ -2808,15 +2995,15 @@
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
-      <c r="K81" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="L81" s="13"/>
-      <c r="M81" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="N81" s="13"/>
-      <c r="O81" s="13"/>
+      <c r="K81" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L81" s="12"/>
+      <c r="M81" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N81" s="12"/>
+      <c r="O81" s="12"/>
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="4"/>
@@ -2830,11 +3017,11 @@
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
       <c r="K82" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="L82" s="3"/>
       <c r="M82" s="3" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
@@ -2851,11 +3038,11 @@
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="3" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="L83" s="3"/>
       <c r="M83" s="3" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
@@ -2872,18 +3059,18 @@
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="3" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="L84" s="3"/>
       <c r="M84" s="3" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -2919,25 +3106,25 @@
     </row>
     <row r="108" spans="1:15">
       <c r="A108" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G108" s="2"/>
       <c r="H108" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
       <c r="K108" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
@@ -2946,32 +3133,32 @@
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="3" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G109" s="3"/>
       <c r="H109" s="3" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
       <c r="K109" s="3" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="L109" s="3"/>
-      <c r="M109" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="N109" s="10"/>
-      <c r="O109" s="10"/>
+      <c r="M109" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="N109" s="9"/>
+      <c r="O109" s="9"/>
     </row>
     <row r="110" spans="1:15">
       <c r="A110" s="3"/>
@@ -2980,20 +3167,20 @@
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
       <c r="F110" s="3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G110" s="3"/>
       <c r="H110" s="3" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
       <c r="K110" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="L110" s="3"/>
       <c r="M110" s="3" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N110" s="3"/>
       <c r="O110" s="3"/>
@@ -3005,23 +3192,23 @@
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
       <c r="F111" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G111" s="3"/>
       <c r="H111" s="3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
-      <c r="K111" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L111" s="10"/>
-      <c r="M111" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="N111" s="10"/>
-      <c r="O111" s="10"/>
+      <c r="K111" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L111" s="9"/>
+      <c r="M111" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="N111" s="9"/>
+      <c r="O111" s="9"/>
     </row>
     <row r="112" spans="1:15">
       <c r="A112" s="4"/>
@@ -3030,11 +3217,11 @@
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
       <c r="F112" s="3" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="G112" s="3"/>
       <c r="H112" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
@@ -3045,61 +3232,61 @@
       <c r="O112" s="4"/>
     </row>
     <row r="113" spans="1:10">
-      <c r="A113" s="11"/>
-      <c r="B113" s="11"/>
-      <c r="C113" s="11"/>
-      <c r="D113" s="11"/>
-      <c r="E113" s="11"/>
-      <c r="F113" s="11"/>
-      <c r="G113" s="11"/>
-      <c r="H113" s="11"/>
-      <c r="I113" s="11"/>
-      <c r="J113" s="11"/>
+      <c r="A113" s="10"/>
+      <c r="B113" s="10"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="10"/>
+      <c r="I113" s="10"/>
+      <c r="J113" s="10"/>
     </row>
     <row r="114" spans="1:15">
-      <c r="A114" s="11"/>
-      <c r="B114" s="11"/>
-      <c r="C114" s="11"/>
-      <c r="D114" s="11"/>
-      <c r="E114" s="11"/>
-      <c r="F114" s="11"/>
-      <c r="G114" s="11"/>
-      <c r="H114" s="11"/>
-      <c r="I114" s="11"/>
-      <c r="J114" s="11"/>
-      <c r="K114" s="11"/>
-      <c r="L114" s="11"/>
-      <c r="M114" s="11"/>
-      <c r="N114" s="11"/>
-      <c r="O114" s="11"/>
+      <c r="A114" s="10"/>
+      <c r="B114" s="10"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="10"/>
+      <c r="I114" s="10"/>
+      <c r="J114" s="10"/>
+      <c r="K114" s="10"/>
+      <c r="L114" s="10"/>
+      <c r="M114" s="10"/>
+      <c r="N114" s="10"/>
+      <c r="O114" s="10"/>
     </row>
     <row r="115" spans="1:15">
-      <c r="A115" s="11"/>
-      <c r="B115" s="11"/>
-      <c r="C115" s="11"/>
-      <c r="I115" s="11"/>
-      <c r="J115" s="11"/>
-      <c r="K115" s="11"/>
-      <c r="L115" s="11"/>
-      <c r="M115" s="11"/>
-      <c r="N115" s="11"/>
-      <c r="O115" s="11"/>
+      <c r="A115" s="10"/>
+      <c r="B115" s="10"/>
+      <c r="C115" s="10"/>
+      <c r="I115" s="10"/>
+      <c r="J115" s="10"/>
+      <c r="K115" s="10"/>
+      <c r="L115" s="10"/>
+      <c r="M115" s="10"/>
+      <c r="N115" s="10"/>
+      <c r="O115" s="10"/>
     </row>
     <row r="116" spans="1:15">
-      <c r="A116" s="11"/>
-      <c r="B116" s="11"/>
-      <c r="C116" s="11"/>
-      <c r="I116" s="11"/>
-      <c r="J116" s="11"/>
-      <c r="K116" s="11"/>
-      <c r="L116" s="11"/>
-      <c r="M116" s="11"/>
-      <c r="N116" s="11"/>
-      <c r="O116" s="11"/>
+      <c r="A116" s="10"/>
+      <c r="B116" s="10"/>
+      <c r="C116" s="10"/>
+      <c r="I116" s="10"/>
+      <c r="J116" s="10"/>
+      <c r="K116" s="10"/>
+      <c r="L116" s="10"/>
+      <c r="M116" s="10"/>
+      <c r="N116" s="10"/>
+      <c r="O116" s="10"/>
     </row>
     <row r="135" spans="1:15">
       <c r="A135" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -3135,25 +3322,25 @@
     </row>
     <row r="137" spans="1:15">
       <c r="A137" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G137" s="2"/>
       <c r="H137" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I137" s="2"/>
       <c r="J137" s="2"/>
       <c r="K137" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="L137" s="2"/>
       <c r="M137" s="2"/>
@@ -3161,55 +3348,55 @@
       <c r="O137" s="2"/>
     </row>
     <row r="138" spans="1:15">
-      <c r="A138" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B138" s="9"/>
-      <c r="C138" s="9"/>
-      <c r="D138" s="9"/>
-      <c r="E138" s="10" t="s">
-        <v>24</v>
+      <c r="A138" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B138" s="8"/>
+      <c r="C138" s="8"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G138" s="3"/>
       <c r="H138" s="3" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
       <c r="K138" s="3" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="L138" s="3"/>
-      <c r="M138" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="N138" s="10"/>
-      <c r="O138" s="10"/>
+      <c r="M138" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="N138" s="9"/>
+      <c r="O138" s="9"/>
     </row>
     <row r="139" spans="1:15">
-      <c r="A139" s="9"/>
-      <c r="B139" s="9"/>
-      <c r="C139" s="9"/>
-      <c r="D139" s="9"/>
-      <c r="E139" s="9"/>
+      <c r="A139" s="8"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
       <c r="F139" s="3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G139" s="3"/>
       <c r="H139" s="3" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
       <c r="K139" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="L139" s="3"/>
       <c r="M139" s="3" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N139" s="3"/>
       <c r="O139" s="3"/>
@@ -3221,23 +3408,23 @@
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
       <c r="F140" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G140" s="3"/>
       <c r="H140" s="3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
-      <c r="K140" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L140" s="10"/>
-      <c r="M140" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="N140" s="10"/>
-      <c r="O140" s="10"/>
+      <c r="K140" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L140" s="9"/>
+      <c r="M140" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="N140" s="9"/>
+      <c r="O140" s="9"/>
     </row>
     <row r="141" spans="1:15">
       <c r="A141" s="4"/>
@@ -3246,11 +3433,11 @@
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="3" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="G141" s="3"/>
       <c r="H141" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
@@ -3261,76 +3448,76 @@
       <c r="O141" s="4"/>
     </row>
     <row r="142" spans="1:15">
-      <c r="A142" s="11"/>
-      <c r="B142" s="11"/>
-      <c r="C142" s="11"/>
-      <c r="D142" s="11"/>
-      <c r="E142" s="11"/>
-      <c r="F142" s="11"/>
-      <c r="G142" s="11"/>
-      <c r="H142" s="11"/>
-      <c r="I142" s="11"/>
-      <c r="J142" s="11"/>
-      <c r="K142" s="11"/>
-      <c r="L142" s="11"/>
-      <c r="M142" s="11"/>
-      <c r="N142" s="11"/>
-      <c r="O142" s="11"/>
+      <c r="A142" s="10"/>
+      <c r="B142" s="10"/>
+      <c r="C142" s="10"/>
+      <c r="D142" s="10"/>
+      <c r="E142" s="10"/>
+      <c r="F142" s="10"/>
+      <c r="G142" s="10"/>
+      <c r="H142" s="10"/>
+      <c r="I142" s="10"/>
+      <c r="J142" s="10"/>
+      <c r="K142" s="10"/>
+      <c r="L142" s="10"/>
+      <c r="M142" s="10"/>
+      <c r="N142" s="10"/>
+      <c r="O142" s="10"/>
     </row>
     <row r="143" spans="1:15">
-      <c r="A143" s="11"/>
-      <c r="B143" s="11"/>
-      <c r="C143" s="11"/>
-      <c r="D143" s="11"/>
-      <c r="E143" s="11"/>
-      <c r="F143" s="11"/>
-      <c r="G143" s="11"/>
-      <c r="H143" s="11"/>
-      <c r="I143" s="11"/>
-      <c r="J143" s="11"/>
-      <c r="K143" s="11"/>
-      <c r="L143" s="11"/>
-      <c r="M143" s="11"/>
-      <c r="N143" s="11"/>
-      <c r="O143" s="11"/>
+      <c r="A143" s="10"/>
+      <c r="B143" s="10"/>
+      <c r="C143" s="10"/>
+      <c r="D143" s="10"/>
+      <c r="E143" s="10"/>
+      <c r="F143" s="10"/>
+      <c r="G143" s="10"/>
+      <c r="H143" s="10"/>
+      <c r="I143" s="10"/>
+      <c r="J143" s="10"/>
+      <c r="K143" s="10"/>
+      <c r="L143" s="10"/>
+      <c r="M143" s="10"/>
+      <c r="N143" s="10"/>
+      <c r="O143" s="10"/>
     </row>
     <row r="144" spans="1:15">
-      <c r="A144" s="11"/>
-      <c r="B144" s="11"/>
-      <c r="C144" s="11"/>
-      <c r="D144" s="11"/>
-      <c r="E144" s="11"/>
-      <c r="F144" s="11"/>
-      <c r="G144" s="11"/>
-      <c r="H144" s="11"/>
-      <c r="I144" s="11"/>
-      <c r="J144" s="11"/>
-      <c r="K144" s="11"/>
-      <c r="L144" s="11"/>
-      <c r="M144" s="11"/>
-      <c r="N144" s="11"/>
-      <c r="O144" s="11"/>
+      <c r="A144" s="10"/>
+      <c r="B144" s="10"/>
+      <c r="C144" s="10"/>
+      <c r="D144" s="10"/>
+      <c r="E144" s="10"/>
+      <c r="F144" s="10"/>
+      <c r="G144" s="10"/>
+      <c r="H144" s="10"/>
+      <c r="I144" s="10"/>
+      <c r="J144" s="10"/>
+      <c r="K144" s="10"/>
+      <c r="L144" s="10"/>
+      <c r="M144" s="10"/>
+      <c r="N144" s="10"/>
+      <c r="O144" s="10"/>
     </row>
     <row r="145" spans="1:15">
-      <c r="A145" s="11"/>
-      <c r="B145" s="11"/>
-      <c r="C145" s="11"/>
-      <c r="D145" s="11"/>
-      <c r="E145" s="11"/>
-      <c r="F145" s="11"/>
-      <c r="G145" s="11"/>
-      <c r="H145" s="11"/>
-      <c r="I145" s="11"/>
-      <c r="J145" s="11"/>
-      <c r="K145" s="11"/>
-      <c r="L145" s="11"/>
-      <c r="M145" s="11"/>
-      <c r="N145" s="11"/>
-      <c r="O145" s="11"/>
+      <c r="A145" s="10"/>
+      <c r="B145" s="10"/>
+      <c r="C145" s="10"/>
+      <c r="D145" s="10"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="10"/>
+      <c r="G145" s="10"/>
+      <c r="H145" s="10"/>
+      <c r="I145" s="10"/>
+      <c r="J145" s="10"/>
+      <c r="K145" s="10"/>
+      <c r="L145" s="10"/>
+      <c r="M145" s="10"/>
+      <c r="N145" s="10"/>
+      <c r="O145" s="10"/>
     </row>
     <row r="157" spans="1:15">
       <c r="A157" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -3366,25 +3553,25 @@
     </row>
     <row r="159" spans="1:15">
       <c r="A159" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G159" s="2"/>
       <c r="H159" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I159" s="2"/>
       <c r="J159" s="2"/>
       <c r="K159" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="L159" s="2"/>
       <c r="M159" s="2"/>
@@ -3393,32 +3580,32 @@
     </row>
     <row r="160" spans="1:15">
       <c r="A160" s="3" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G160" s="3"/>
       <c r="H160" s="3" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
       <c r="K160" s="3" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="L160" s="3"/>
-      <c r="M160" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="N160" s="10"/>
-      <c r="O160" s="10"/>
+      <c r="M160" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="N160" s="9"/>
+      <c r="O160" s="9"/>
     </row>
     <row r="161" spans="1:15">
       <c r="A161" s="3"/>
@@ -3427,20 +3614,20 @@
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
       <c r="F161" s="3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G161" s="3"/>
       <c r="H161" s="3" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
       <c r="K161" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="L161" s="3"/>
       <c r="M161" s="3" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N161" s="3"/>
       <c r="O161" s="3"/>
@@ -3452,23 +3639,23 @@
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
       <c r="F162" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G162" s="3"/>
       <c r="H162" s="3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
-      <c r="K162" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L162" s="10"/>
-      <c r="M162" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="N162" s="10"/>
-      <c r="O162" s="10"/>
+      <c r="K162" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L162" s="9"/>
+      <c r="M162" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="N162" s="9"/>
+      <c r="O162" s="9"/>
     </row>
     <row r="163" spans="1:15">
       <c r="A163" s="4"/>
@@ -3477,11 +3664,11 @@
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
       <c r="F163" s="3" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="G163" s="3"/>
       <c r="H163" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
@@ -3492,72 +3679,72 @@
       <c r="O163" s="4"/>
     </row>
     <row r="164" spans="1:15">
-      <c r="A164" s="11"/>
-      <c r="B164" s="11"/>
-      <c r="C164" s="11"/>
-      <c r="D164" s="11"/>
-      <c r="E164" s="11"/>
-      <c r="F164" s="11"/>
-      <c r="G164" s="11"/>
-      <c r="H164" s="11"/>
-      <c r="I164" s="11"/>
-      <c r="J164" s="11"/>
-      <c r="K164" s="11"/>
-      <c r="L164" s="11"/>
-      <c r="M164" s="11"/>
-      <c r="N164" s="11"/>
-      <c r="O164" s="11"/>
+      <c r="A164" s="10"/>
+      <c r="B164" s="10"/>
+      <c r="C164" s="10"/>
+      <c r="D164" s="10"/>
+      <c r="E164" s="10"/>
+      <c r="F164" s="10"/>
+      <c r="G164" s="10"/>
+      <c r="H164" s="10"/>
+      <c r="I164" s="10"/>
+      <c r="J164" s="10"/>
+      <c r="K164" s="10"/>
+      <c r="L164" s="10"/>
+      <c r="M164" s="10"/>
+      <c r="N164" s="10"/>
+      <c r="O164" s="10"/>
     </row>
     <row r="165" spans="1:15">
-      <c r="A165" s="11"/>
-      <c r="B165" s="11"/>
-      <c r="C165" s="11"/>
-      <c r="D165" s="11"/>
-      <c r="E165" s="11"/>
-      <c r="F165" s="11"/>
-      <c r="G165" s="11"/>
-      <c r="H165" s="11"/>
-      <c r="I165" s="11"/>
-      <c r="J165" s="11"/>
-      <c r="K165" s="11"/>
-      <c r="L165" s="11"/>
-      <c r="M165" s="11"/>
-      <c r="N165" s="11"/>
-      <c r="O165" s="11"/>
+      <c r="A165" s="10"/>
+      <c r="B165" s="10"/>
+      <c r="C165" s="10"/>
+      <c r="D165" s="10"/>
+      <c r="E165" s="10"/>
+      <c r="F165" s="10"/>
+      <c r="G165" s="10"/>
+      <c r="H165" s="10"/>
+      <c r="I165" s="10"/>
+      <c r="J165" s="10"/>
+      <c r="K165" s="10"/>
+      <c r="L165" s="10"/>
+      <c r="M165" s="10"/>
+      <c r="N165" s="10"/>
+      <c r="O165" s="10"/>
     </row>
     <row r="166" spans="1:15">
-      <c r="A166" s="11"/>
-      <c r="B166" s="11"/>
-      <c r="C166" s="11"/>
-      <c r="D166" s="11"/>
-      <c r="E166" s="11"/>
-      <c r="F166" s="11"/>
-      <c r="G166" s="11"/>
-      <c r="H166" s="11"/>
-      <c r="I166" s="11"/>
-      <c r="J166" s="11"/>
-      <c r="K166" s="11"/>
-      <c r="L166" s="11"/>
-      <c r="M166" s="11"/>
-      <c r="N166" s="11"/>
-      <c r="O166" s="11"/>
+      <c r="A166" s="10"/>
+      <c r="B166" s="10"/>
+      <c r="C166" s="10"/>
+      <c r="D166" s="10"/>
+      <c r="E166" s="10"/>
+      <c r="F166" s="10"/>
+      <c r="G166" s="10"/>
+      <c r="H166" s="10"/>
+      <c r="I166" s="10"/>
+      <c r="J166" s="10"/>
+      <c r="K166" s="10"/>
+      <c r="L166" s="10"/>
+      <c r="M166" s="10"/>
+      <c r="N166" s="10"/>
+      <c r="O166" s="10"/>
     </row>
     <row r="167" spans="1:15">
-      <c r="A167" s="11"/>
-      <c r="B167" s="11"/>
-      <c r="C167" s="11"/>
-      <c r="D167" s="11"/>
-      <c r="E167" s="11"/>
-      <c r="F167" s="11"/>
-      <c r="G167" s="11"/>
-      <c r="H167" s="11"/>
-      <c r="I167" s="11"/>
-      <c r="J167" s="11"/>
-      <c r="K167" s="11"/>
-      <c r="L167" s="11"/>
-      <c r="M167" s="11"/>
-      <c r="N167" s="11"/>
-      <c r="O167" s="11"/>
+      <c r="A167" s="10"/>
+      <c r="B167" s="10"/>
+      <c r="C167" s="10"/>
+      <c r="D167" s="10"/>
+      <c r="E167" s="10"/>
+      <c r="F167" s="10"/>
+      <c r="G167" s="10"/>
+      <c r="H167" s="10"/>
+      <c r="I167" s="10"/>
+      <c r="J167" s="10"/>
+      <c r="K167" s="10"/>
+      <c r="L167" s="10"/>
+      <c r="M167" s="10"/>
+      <c r="N167" s="10"/>
+      <c r="O167" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="203">
@@ -3771,13 +3958,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3786,62 +3973,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -3849,52 +4036,52 @@
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
+      <c r="A4" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="4"/>
@@ -3903,19 +4090,19 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4"/>
@@ -3924,104 +4111,104 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="3" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="37">
@@ -4069,12 +4256,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O53"/>
+  <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A48" sqref="A48:O49"/>
     </sheetView>
   </sheetViews>
@@ -4084,62 +4271,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -4147,112 +4334,112 @@
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
+      <c r="A4" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
+      <c r="A25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -4261,55 +4448,55 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="9" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10" t="s">
+      <c r="E28" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="4"/>
@@ -4318,81 +4505,81 @@
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="3" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
-      <c r="K30" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
+      <c r="K30" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
+      <c r="A48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
@@ -4400,74 +4587,99 @@
       <c r="O50" s="2"/>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9" t="s">
+      <c r="A51" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-    </row>
-    <row r="52" spans="1:15">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
-    </row>
-    <row r="53" spans="1:15">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="11"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="51">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -4514,6 +4726,8 @@
     <mergeCell ref="H53:J53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:O53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:J54"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A25:O26"/>
     <mergeCell ref="A48:O49"/>
@@ -4524,13 +4738,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:R203"/>
   <sheetViews>
-    <sheetView topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="H203" sqref="H203:J203"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4539,62 +4753,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -4602,33 +4816,33 @@
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
+      <c r="A4" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="4"/>
@@ -4637,20 +4851,20 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -4662,21 +4876,21 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
+      <c r="K6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4"/>
@@ -4684,21 +4898,21 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="F7" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
       <c r="K7" s="3" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -4715,11 +4929,11 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="3" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -4736,11 +4950,11 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="3" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -4757,11 +4971,11 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="3" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -4778,18 +4992,18 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -4825,25 +5039,25 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -4851,33 +5065,33 @@
       <c r="O29" s="2"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
+      <c r="A30" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="4"/>
@@ -4886,20 +5100,20 @@
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="L31" s="3"/>
       <c r="M31" s="3" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
@@ -4911,19 +5125,19 @@
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="4"/>
@@ -4932,11 +5146,11 @@
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="3" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
@@ -4953,11 +5167,11 @@
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="3" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
@@ -4968,25 +5182,25 @@
       <c r="O34" s="4"/>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -5022,25 +5236,25 @@
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
@@ -5048,33 +5262,33 @@
       <c r="O52" s="2"/>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
+      <c r="A53" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="4"/>
@@ -5083,20 +5297,20 @@
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
@@ -5108,16 +5322,16 @@
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
@@ -5136,11 +5350,11 @@
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="3" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="L56" s="3"/>
       <c r="M56" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
@@ -5157,11 +5371,11 @@
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="3" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="L57" s="3"/>
       <c r="M57" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
@@ -5178,11 +5392,11 @@
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="3" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="L58" s="3"/>
       <c r="M58" s="3" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
@@ -5199,11 +5413,11 @@
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="K59" s="3" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="L59" s="3"/>
       <c r="M59" s="3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
@@ -5220,18 +5434,18 @@
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="3" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="L60" s="3"/>
       <c r="M60" s="3" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -5267,25 +5481,25 @@
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G75" s="2"/>
       <c r="H75" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
@@ -5293,33 +5507,33 @@
       <c r="O75" s="2"/>
     </row>
     <row r="76" spans="1:15">
-      <c r="A76" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F76" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I76" s="9"/>
-      <c r="J76" s="9"/>
-      <c r="K76" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L76" s="10"/>
-      <c r="M76" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="N76" s="10"/>
-      <c r="O76" s="10"/>
+      <c r="A76" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="N76" s="9"/>
+      <c r="O76" s="9"/>
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="4"/>
@@ -5328,20 +5542,20 @@
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="3" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="L77" s="3"/>
       <c r="M77" s="3" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
@@ -5353,21 +5567,21 @@
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
-      <c r="K78" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="L78" s="10"/>
-      <c r="M78" s="10"/>
-      <c r="N78" s="10"/>
-      <c r="O78" s="10"/>
+      <c r="K78" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="9"/>
+      <c r="O78" s="9"/>
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="4"/>
@@ -5376,20 +5590,20 @@
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="3" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="L79" s="3"/>
       <c r="M79" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
@@ -5406,11 +5620,11 @@
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L80" s="3"/>
       <c r="M80" s="3" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
@@ -5427,11 +5641,11 @@
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="3" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="L81" s="3"/>
       <c r="M81" s="3" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
@@ -5448,11 +5662,11 @@
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
       <c r="K82" s="3" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="L82" s="3"/>
       <c r="M82" s="3" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
@@ -5469,11 +5683,11 @@
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="3" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="L83" s="3"/>
       <c r="M83" s="3" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
@@ -5490,11 +5704,11 @@
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="3" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="L84" s="3"/>
       <c r="M84" s="3" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
@@ -5511,11 +5725,11 @@
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="3" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="L85" s="3"/>
       <c r="M85" s="3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="N85" s="3"/>
       <c r="O85" s="3"/>
@@ -5532,18 +5746,18 @@
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="3" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="L86" s="3"/>
       <c r="M86" s="3" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="N86" s="3"/>
       <c r="O86" s="3"/>
     </row>
     <row r="103" spans="1:15">
       <c r="A103" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -5579,25 +5793,25 @@
     </row>
     <row r="105" spans="1:15">
       <c r="A105" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G105" s="2"/>
       <c r="H105" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
       <c r="K105" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
@@ -5606,32 +5820,32 @@
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="3" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G106" s="3"/>
       <c r="H106" s="3" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
-      <c r="K106" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L106" s="10"/>
-      <c r="M106" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="N106" s="10"/>
-      <c r="O106" s="10"/>
+      <c r="K106" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L106" s="9"/>
+      <c r="M106" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="N106" s="9"/>
+      <c r="O106" s="9"/>
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="3"/>
@@ -5640,20 +5854,20 @@
       <c r="D107" s="3"/>
       <c r="E107" s="4"/>
       <c r="F107" s="3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G107" s="3"/>
       <c r="H107" s="3" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
       <c r="K107" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="L107" s="3"/>
       <c r="M107" s="3" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N107" s="3"/>
       <c r="O107" s="3"/>
@@ -5665,11 +5879,11 @@
       <c r="D108" s="3"/>
       <c r="E108" s="4"/>
       <c r="F108" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G108" s="3"/>
       <c r="H108" s="3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
@@ -5686,11 +5900,11 @@
       <c r="D109" s="3"/>
       <c r="E109" s="4"/>
       <c r="F109" s="3" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="G109" s="3"/>
       <c r="H109" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
@@ -5707,11 +5921,11 @@
       <c r="D110" s="3"/>
       <c r="E110" s="4"/>
       <c r="F110" s="3" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="G110" s="3"/>
       <c r="H110" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
@@ -5728,11 +5942,11 @@
       <c r="D111" s="3"/>
       <c r="E111" s="4"/>
       <c r="F111" s="3" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="G111" s="3"/>
       <c r="H111" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
@@ -5744,7 +5958,7 @@
     </row>
     <row r="134" spans="1:15">
       <c r="A134" s="1" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -5780,25 +5994,25 @@
     </row>
     <row r="136" spans="1:15">
       <c r="A136" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G136" s="2"/>
       <c r="H136" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I136" s="2"/>
       <c r="J136" s="2"/>
       <c r="K136" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="L136" s="2"/>
       <c r="M136" s="2"/>
@@ -5807,32 +6021,32 @@
     </row>
     <row r="137" spans="1:15">
       <c r="A137" s="3" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G137" s="3"/>
       <c r="H137" s="3" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
-      <c r="K137" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L137" s="10"/>
-      <c r="M137" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="N137" s="10"/>
-      <c r="O137" s="10"/>
+      <c r="K137" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L137" s="9"/>
+      <c r="M137" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="N137" s="9"/>
+      <c r="O137" s="9"/>
     </row>
     <row r="138" spans="1:15">
       <c r="A138" s="4"/>
@@ -5841,20 +6055,20 @@
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
       <c r="F138" s="3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G138" s="3"/>
       <c r="H138" s="3" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
       <c r="K138" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="L138" s="3"/>
       <c r="M138" s="3" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N138" s="3"/>
       <c r="O138" s="3"/>
@@ -5866,11 +6080,11 @@
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
       <c r="F139" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G139" s="3"/>
       <c r="H139" s="3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
@@ -5887,11 +6101,11 @@
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
       <c r="F140" s="3" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="G140" s="3"/>
       <c r="H140" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
@@ -5903,7 +6117,7 @@
     </row>
     <row r="165" spans="1:18">
       <c r="A165" s="1" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -5920,7 +6134,7 @@
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
       <c r="P165" s="6" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="Q165" s="6"/>
       <c r="R165" s="6"/>
@@ -5947,71 +6161,71 @@
     </row>
     <row r="167" spans="1:18">
       <c r="A167" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G167" s="2"/>
       <c r="H167" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I167" s="2"/>
       <c r="J167" s="2"/>
       <c r="K167" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="L167" s="2"/>
       <c r="M167" s="2"/>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
       <c r="P167" s="6" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="Q167" s="6" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="R167" s="6"/>
     </row>
     <row r="168" spans="1:18">
       <c r="A168" s="3" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G168" s="3"/>
       <c r="H168" s="3" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
-      <c r="K168" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L168" s="10"/>
-      <c r="M168" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="N168" s="10"/>
-      <c r="O168" s="10"/>
+      <c r="K168" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L168" s="9"/>
+      <c r="M168" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="N168" s="9"/>
+      <c r="O168" s="9"/>
       <c r="P168" s="6" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="Q168" s="6" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="R168" s="6"/>
     </row>
@@ -6022,28 +6236,28 @@
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
       <c r="F169" s="3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G169" s="3"/>
       <c r="H169" s="3" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
       <c r="K169" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="L169" s="3"/>
       <c r="M169" s="3" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N169" s="3"/>
       <c r="O169" s="3"/>
       <c r="P169" s="6" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="Q169" s="6" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="R169" s="6"/>
     </row>
@@ -6054,24 +6268,24 @@
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
       <c r="F170" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G170" s="3"/>
       <c r="H170" s="3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
-      <c r="K170" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="L170" s="10"/>
-      <c r="M170" s="10"/>
-      <c r="N170" s="10"/>
-      <c r="O170" s="10"/>
+      <c r="K170" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="L170" s="9"/>
+      <c r="M170" s="9"/>
+      <c r="N170" s="9"/>
+      <c r="O170" s="9"/>
       <c r="P170" s="6"/>
-      <c r="Q170" s="12"/>
-      <c r="R170" s="12"/>
+      <c r="Q170" s="11"/>
+      <c r="R170" s="11"/>
     </row>
     <row r="171" spans="1:18">
       <c r="A171" s="4"/>
@@ -6085,17 +6299,17 @@
       <c r="I171" s="4"/>
       <c r="J171" s="4"/>
       <c r="K171" s="3" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="L171" s="3"/>
       <c r="M171" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="N171" s="3"/>
       <c r="O171" s="3"/>
       <c r="P171" s="6"/>
-      <c r="Q171" s="12"/>
-      <c r="R171" s="12"/>
+      <c r="Q171" s="11"/>
+      <c r="R171" s="11"/>
     </row>
     <row r="172" spans="1:18">
       <c r="A172" s="4"/>
@@ -6109,17 +6323,17 @@
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
       <c r="K172" s="3" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="L172" s="3"/>
       <c r="M172" s="3" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="N172" s="3"/>
       <c r="O172" s="3"/>
       <c r="P172" s="6"/>
-      <c r="Q172" s="12"/>
-      <c r="R172" s="12"/>
+      <c r="Q172" s="11"/>
+      <c r="R172" s="11"/>
     </row>
     <row r="173" spans="1:18">
       <c r="A173" s="4"/>
@@ -6133,11 +6347,11 @@
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
       <c r="K173" s="3" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="L173" s="3"/>
       <c r="M173" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="N173" s="3"/>
       <c r="O173" s="3"/>
@@ -6157,11 +6371,11 @@
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
       <c r="K174" s="3" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="L174" s="3"/>
       <c r="M174" s="3" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="N174" s="3"/>
       <c r="O174" s="3"/>
@@ -6181,11 +6395,11 @@
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
       <c r="K175" s="3" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="L175" s="3"/>
       <c r="M175" s="3" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="N175" s="3"/>
       <c r="O175" s="3"/>
@@ -6205,11 +6419,11 @@
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
       <c r="K176" s="3" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="L176" s="3"/>
       <c r="M176" s="3" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="N176" s="3"/>
       <c r="O176" s="3"/>
@@ -6229,11 +6443,11 @@
       <c r="I177" s="4"/>
       <c r="J177" s="4"/>
       <c r="K177" s="3" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="L177" s="3"/>
       <c r="M177" s="3" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="N177" s="3"/>
       <c r="O177" s="3"/>
@@ -6253,11 +6467,11 @@
       <c r="I178" s="4"/>
       <c r="J178" s="4"/>
       <c r="K178" s="3" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="L178" s="3"/>
       <c r="M178" s="3" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="N178" s="3"/>
       <c r="O178" s="3"/>
@@ -6267,7 +6481,7 @@
     </row>
     <row r="196" spans="1:15">
       <c r="A196" s="1" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -6303,25 +6517,25 @@
     </row>
     <row r="198" spans="1:15">
       <c r="A198" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G198" s="2"/>
       <c r="H198" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I198" s="2"/>
       <c r="J198" s="2"/>
       <c r="K198" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="L198" s="2"/>
       <c r="M198" s="2"/>
@@ -6330,29 +6544,29 @@
     </row>
     <row r="199" spans="1:15">
       <c r="A199" s="3" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G199" s="3"/>
       <c r="H199" s="3" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="I199" s="3"/>
       <c r="J199" s="3"/>
       <c r="K199" s="3" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="L199" s="3"/>
       <c r="M199" s="3" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="N199" s="3"/>
       <c r="O199" s="3"/>
@@ -6364,20 +6578,20 @@
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
       <c r="F200" s="3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G200" s="3"/>
       <c r="H200" s="3" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I200" s="3"/>
       <c r="J200" s="3"/>
       <c r="K200" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="L200" s="3"/>
       <c r="M200" s="3" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N200" s="3"/>
       <c r="O200" s="3"/>
@@ -6389,11 +6603,11 @@
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
       <c r="F201" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G201" s="3"/>
       <c r="H201" s="3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="I201" s="3"/>
       <c r="J201" s="3"/>
@@ -6410,11 +6624,11 @@
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
       <c r="F202" s="3" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="G202" s="3"/>
       <c r="H202" s="3" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="I202" s="3"/>
       <c r="J202" s="3"/>
@@ -6431,11 +6645,11 @@
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
       <c r="F203" s="3" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="G203" s="3"/>
       <c r="H203" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="I203" s="3"/>
       <c r="J203" s="3"/>
@@ -6677,20 +6891,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:S71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="H32" sqref="H32:J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6726,25 +6940,25 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -6753,20 +6967,20 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -6783,11 +6997,11 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -6804,11 +7018,11 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="3" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -6854,7 +7068,7 @@
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="1" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -6871,7 +7085,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="6" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
@@ -6900,55 +7114,55 @@
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="6" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="Q31" s="6"/>
       <c r="R31" s="6" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="S31" s="6"/>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="3" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
@@ -6958,11 +7172,11 @@
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="6" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Q32" s="6"/>
       <c r="R32" s="6" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="S32" s="6"/>
     </row>
@@ -6973,11 +7187,11 @@
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="3" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
@@ -6998,11 +7212,11 @@
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="3" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
@@ -7023,11 +7237,11 @@
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
@@ -7048,11 +7262,11 @@
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="3" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
@@ -7071,7 +7285,7 @@
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="1" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -7107,25 +7321,25 @@
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
@@ -7134,13 +7348,13 @@
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="3" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
@@ -7148,11 +7362,11 @@
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="L63" s="3"/>
       <c r="M63" s="3" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
@@ -7169,11 +7383,11 @@
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="L64" s="3"/>
       <c r="M64" s="3" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
@@ -7190,11 +7404,11 @@
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="L65" s="3"/>
       <c r="M65" s="3" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
@@ -7211,11 +7425,11 @@
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="L66" s="3"/>
       <c r="M66" s="3" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
@@ -7232,11 +7446,11 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="L67" s="3"/>
       <c r="M67" s="3" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
@@ -7253,11 +7467,11 @@
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="3" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="L68" s="3"/>
       <c r="M68" s="3" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
@@ -7274,11 +7488,11 @@
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="3" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="L69" s="3"/>
       <c r="M69" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
@@ -7295,11 +7509,11 @@
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="3" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="L70" s="3"/>
       <c r="M70" s="3" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
@@ -7316,11 +7530,11 @@
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
       <c r="K71" s="3" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="L71" s="3"/>
       <c r="M71" s="3" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>

--- a/需求分析/需求接口 v1.0.0.xlsx
+++ b/需求分析/需求接口 v1.0.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26445" windowHeight="11925" activeTab="9"/>
+    <workbookView windowWidth="28695" windowHeight="13050" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="更新说明" sheetId="7" r:id="rId1"/>
@@ -1184,9 +1184,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1405,6 +1405,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1424,6 +1430,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1459,6 +1471,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1477,25 +1501,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1513,31 +1537,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1656,10 +1656,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1668,16 +1668,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1689,10 +1689,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1719,19 +1719,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1743,28 +1743,28 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1773,28 +1773,28 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2845,8 +2845,8 @@
   <sheetPr/>
   <dimension ref="A1:O219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="I212" sqref="I212"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="F94" sqref="F94:G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3861,7 +3861,8 @@
       <c r="N94" s="3"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="2:15">
+    <row r="95" spans="1:15">
+      <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -3881,7 +3882,8 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="2:15">
+    <row r="96" spans="1:15">
+      <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
@@ -5406,7 +5408,7 @@
   <sheetPr/>
   <dimension ref="A1:O96"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="K87" sqref="K87:O89"/>
     </sheetView>
   </sheetViews>
@@ -9452,8 +9454,8 @@
   <sheetPr/>
   <dimension ref="A1:R263"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="I95" sqref="I95"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
